--- a/data_month/zb/房地产/商品住宅销售额.xlsx
+++ b/data_month/zb/房地产/商品住宅销售额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:J243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,26 @@
           <t>商品住宅销售额_累计增长</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>商品住宅期房销售额</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>商品住宅现房销售额</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>商品住宅销售额</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -476,14 +491,19 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>1432.99</v>
+        <v>123</v>
       </c>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -491,14 +511,19 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>1700.76</v>
+        <v>243.89</v>
       </c>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>120.89</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -506,14 +531,19 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>2954.12</v>
+        <v>374.4</v>
       </c>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>130.51</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -521,14 +551,19 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>123</v>
+        <v>526.14</v>
       </c>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>151.74</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -536,14 +571,19 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>243.89</v>
+        <v>712.14</v>
       </c>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -551,14 +591,19 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>374.4</v>
+        <v>867.74</v>
       </c>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>155.6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -566,14 +611,19 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>526.14</v>
+        <v>1044.57</v>
       </c>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>176.8299999999999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -581,14 +631,19 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>712.14</v>
+        <v>1231.33</v>
       </c>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>186.76</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -596,14 +651,19 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>867.74</v>
+        <v>1432.99</v>
       </c>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>201.6600000000001</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -611,14 +671,19 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>1044.57</v>
+        <v>1700.76</v>
       </c>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>267.77</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -626,14 +691,19 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>1231.33</v>
+        <v>2954.12</v>
       </c>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1253.36</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -641,14 +711,19 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>1916.05</v>
+        <v>182.58</v>
       </c>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>182.58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -656,14 +731,19 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>2190.77</v>
+        <v>363.27</v>
       </c>
       <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>180.69</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -671,14 +751,19 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>3825.31</v>
+        <v>550</v>
       </c>
       <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>186.73</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -686,14 +771,19 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>182.58</v>
+        <v>756.1799999999999</v>
       </c>
       <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>206.1799999999999</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -701,14 +791,19 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>363.27</v>
+        <v>987.41</v>
       </c>
       <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>231.23</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -716,14 +811,19 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>550</v>
+        <v>1228.36</v>
       </c>
       <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>240.9499999999999</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -731,14 +831,19 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>756.1799999999999</v>
+        <v>1452.9</v>
       </c>
       <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>224.5400000000002</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -746,14 +851,19 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>987.41</v>
+        <v>1693.28</v>
       </c>
       <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>240.3799999999999</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -761,14 +871,19 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>1228.36</v>
+        <v>1916.05</v>
       </c>
       <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>222.77</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -776,14 +891,19 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>1452.9</v>
+        <v>2190.77</v>
       </c>
       <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>274.72</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -791,14 +911,19 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>1693.28</v>
+        <v>3825.31</v>
       </c>
       <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1634.54</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -806,14 +931,19 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>2595.91</v>
+        <v>188.5</v>
       </c>
       <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -821,14 +951,19 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>3011.57</v>
+        <v>416.21</v>
       </c>
       <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>227.71</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -836,14 +971,19 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>4709.96</v>
+        <v>646</v>
       </c>
       <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>229.79</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -851,14 +991,19 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>188.5</v>
+        <v>863.08</v>
       </c>
       <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>217.08</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -866,14 +1011,19 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>416.21</v>
+        <v>1208.53</v>
       </c>
       <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>345.4499999999999</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -881,14 +1031,19 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>646</v>
+        <v>1498.37</v>
       </c>
       <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>289.8399999999999</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -896,14 +1051,19 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>863.08</v>
+        <v>1817.32</v>
       </c>
       <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -911,14 +1071,19 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>1208.53</v>
+        <v>2238.97</v>
       </c>
       <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>421.6499999999999</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -926,14 +1091,19 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>1498.37</v>
+        <v>2595.91</v>
       </c>
       <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>356.9400000000001</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -941,14 +1111,19 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>1817.32</v>
+        <v>3011.57</v>
       </c>
       <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>415.6600000000003</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -956,14 +1131,19 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>2238.97</v>
+        <v>4709.96</v>
       </c>
       <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1698.39</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -971,14 +1151,19 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>3653.22</v>
+        <v>327.39</v>
       </c>
       <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>327.39</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -986,14 +1171,19 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>4147.43</v>
+        <v>650.39</v>
       </c>
       <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>323</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1001,14 +1191,19 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>6303.85</v>
+        <v>954.04</v>
       </c>
       <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>303.65</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1016,14 +1211,19 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>327.39</v>
+        <v>1298.23</v>
       </c>
       <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>344.1900000000001</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1031,14 +1231,19 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>650.39</v>
+        <v>1753.09</v>
       </c>
       <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>454.8599999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1046,14 +1251,19 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>954.04</v>
+        <v>2143</v>
       </c>
       <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>389.9100000000001</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1061,14 +1271,19 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>1298.23</v>
+        <v>2567.23</v>
       </c>
       <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>424.23</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1076,14 +1291,19 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>1753.09</v>
+        <v>3158.56</v>
       </c>
       <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>591.3299999999999</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1091,14 +1311,19 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>2143</v>
+        <v>3653.22</v>
       </c>
       <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>494.6599999999999</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1106,14 +1331,19 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>2567.23</v>
+        <v>4147.43</v>
       </c>
       <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>494.2100000000005</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1121,14 +1351,19 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>3158.56</v>
+        <v>6303.85</v>
       </c>
       <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>2156.42</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1136,16 +1371,21 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>4732.44</v>
+        <v>493.43</v>
       </c>
       <c r="G46" t="n">
-        <v>29</v>
+        <v>51</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>493.43</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1153,16 +1393,21 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>5471.84</v>
+        <v>951.65</v>
       </c>
       <c r="G47" t="n">
-        <v>31.4</v>
+        <v>45.1</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>458.22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1170,16 +1415,21 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
-        <v>8619.370000000001</v>
+        <v>1343.73</v>
       </c>
       <c r="G48" t="n">
-        <v>31.3</v>
+        <v>40.2</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>392.08</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1187,16 +1437,21 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>493.43</v>
+        <v>1835.34</v>
       </c>
       <c r="G49" t="n">
-        <v>51</v>
+        <v>41.1</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>491.6099999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1204,16 +1459,21 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
-        <v>951.65</v>
+        <v>2445.03</v>
       </c>
       <c r="G50" t="n">
-        <v>45.1</v>
+        <v>38.8</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>609.6900000000003</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1221,16 +1481,21 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>1343.73</v>
+        <v>2941.87</v>
       </c>
       <c r="G51" t="n">
-        <v>40.2</v>
+        <v>36.6</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>496.8399999999997</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1238,16 +1503,21 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
-        <v>1835.34</v>
+        <v>3486.04</v>
       </c>
       <c r="G52" t="n">
-        <v>41.1</v>
+        <v>35.1</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>544.1700000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1255,16 +1525,21 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>2445.03</v>
+        <v>4157.3</v>
       </c>
       <c r="G53" t="n">
-        <v>38.8</v>
+        <v>31.1</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>671.2600000000002</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1272,16 +1547,21 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>2941.87</v>
+        <v>4732.44</v>
       </c>
       <c r="G54" t="n">
-        <v>36.6</v>
+        <v>29</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>575.1399999999994</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -1289,16 +1569,21 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>3486.04</v>
+        <v>5471.84</v>
       </c>
       <c r="G55" t="n">
-        <v>35.1</v>
+        <v>31.4</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>739.4000000000005</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -1306,73 +1591,87 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>4157.3</v>
+        <v>8619.370000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>3147.530000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>7459.13</v>
-      </c>
+          <t>2005-02</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="n">
-        <v>3385.7</v>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
-        <v>10844.83</v>
-      </c>
-      <c r="G57" t="inlineStr"/>
+        <v>687.36</v>
+      </c>
+      <c r="G57" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>687.36</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>8414.879999999999</v>
-      </c>
+          <t>2005-03</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="n">
-        <v>3726.87</v>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
-        <v>12141.75</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
+        <v>1307.82</v>
+      </c>
+      <c r="G58" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>620.4599999999999</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>9808.360000000001</v>
-      </c>
+          <t>2005-04</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="n">
-        <v>5177.69</v>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
-        <v>14986.05</v>
-      </c>
-      <c r="G59" t="inlineStr"/>
+        <v>1784.45</v>
+      </c>
+      <c r="G59" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>476.6300000000001</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -1380,16 +1679,21 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
-        <v>687.36</v>
+        <v>2335.8</v>
       </c>
       <c r="G60" t="n">
-        <v>37.2</v>
+        <v>27</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>551.3500000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -1397,16 +1701,21 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
-        <v>1307.82</v>
+        <v>3123.61</v>
       </c>
       <c r="G61" t="n">
-        <v>36.2</v>
+        <v>28.1</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>787.8099999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -1414,4499 +1723,6139 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
-        <v>1784.45</v>
+        <v>4029.67</v>
       </c>
       <c r="G62" t="n">
-        <v>32.8</v>
+        <v>36.9</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>906.0599999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
+          <t>2005-08</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>5811.05</v>
+      </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>2618.63</v>
+      </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="n">
-        <v>2335.8</v>
-      </c>
-      <c r="G63" t="n">
-        <v>27</v>
+        <v>8429.68</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="n">
+        <v>5811.05</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2618.63</v>
+      </c>
+      <c r="J63" t="n">
+        <v>4400.01</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
+          <t>2005-09</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>6554.04</v>
+      </c>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="n">
+        <v>2981.35</v>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="n">
-        <v>3123.61</v>
-      </c>
-      <c r="G64" t="n">
-        <v>28.1</v>
+        <v>9535.389999999999</v>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>742.9899999999998</v>
+      </c>
+      <c r="I64" t="n">
+        <v>362.7199999999998</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1105.709999999999</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
+          <t>2005-10</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>7459.13</v>
+      </c>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>3385.7</v>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
-        <v>4029.67</v>
-      </c>
-      <c r="G65" t="n">
-        <v>36.9</v>
+        <v>10844.83</v>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>905.0900000000001</v>
+      </c>
+      <c r="I65" t="n">
+        <v>404.3499999999999</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1309.440000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5811.05</v>
+        <v>8414.879999999999</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>2618.63</v>
+        <v>3726.87</v>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
-        <v>8429.68</v>
+        <v>12141.75</v>
       </c>
       <c r="G66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>955.7499999999991</v>
+      </c>
+      <c r="I66" t="n">
+        <v>341.1700000000001</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1296.92</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6554.04</v>
+        <v>9808.360000000001</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>2981.35</v>
+        <v>5177.69</v>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
-        <v>9535.389999999999</v>
+        <v>14986.05</v>
       </c>
       <c r="G67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>1393.480000000001</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1450.82</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2844.299999999999</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>8788.58</v>
+        <v>1161.76</v>
       </c>
       <c r="C68" t="n">
-        <v>27.9</v>
+        <v>14.7</v>
       </c>
       <c r="D68" t="n">
-        <v>2970.71</v>
+        <v>344.64</v>
       </c>
       <c r="E68" t="n">
-        <v>-2</v>
+        <v>-2.2</v>
       </c>
       <c r="F68" t="n">
-        <v>11759.29</v>
+        <v>1506.4</v>
       </c>
       <c r="G68" t="n">
-        <v>18.7</v>
+        <v>10.3</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1161.76</v>
+      </c>
+      <c r="I68" t="n">
+        <v>344.64</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1506.4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>10145.46</v>
+        <v>1953.2</v>
       </c>
       <c r="C69" t="n">
-        <v>28.5</v>
+        <v>13.7</v>
       </c>
       <c r="D69" t="n">
-        <v>3347.12</v>
+        <v>646.36</v>
       </c>
       <c r="E69" t="n">
-        <v>-3.3</v>
+        <v>-1.2</v>
       </c>
       <c r="F69" t="n">
-        <v>13492.58</v>
+        <v>2599.96</v>
       </c>
       <c r="G69" t="n">
-        <v>18.8</v>
+        <v>9.6</v>
+      </c>
+      <c r="H69" t="n">
+        <v>791.4400000000001</v>
+      </c>
+      <c r="I69" t="n">
+        <v>301.72</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1093.56</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>12214.71</v>
+        <v>2851.21</v>
       </c>
       <c r="C70" t="n">
-        <v>32.2</v>
+        <v>18.2</v>
       </c>
       <c r="D70" t="n">
-        <v>4823.3</v>
+        <v>964.6799999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.4</v>
+        <v>-2.6</v>
       </c>
       <c r="F70" t="n">
-        <v>17038.01</v>
+        <v>3815.89</v>
       </c>
       <c r="G70" t="n">
-        <v>20.2</v>
+        <v>12.2</v>
+      </c>
+      <c r="H70" t="n">
+        <v>898.01</v>
+      </c>
+      <c r="I70" t="n">
+        <v>318.3199999999999</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1215.93</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1161.76</v>
+        <v>3937.36</v>
       </c>
       <c r="C71" t="n">
-        <v>14.7</v>
+        <v>27.5</v>
       </c>
       <c r="D71" t="n">
-        <v>344.64</v>
+        <v>1309.53</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.2</v>
+        <v>1.4</v>
       </c>
       <c r="F71" t="n">
-        <v>1506.4</v>
+        <v>5246.9</v>
       </c>
       <c r="G71" t="n">
-        <v>10.3</v>
+        <v>19.8</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1086.15</v>
+      </c>
+      <c r="I71" t="n">
+        <v>344.85</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1431.01</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1953.2</v>
+        <v>4950.23</v>
       </c>
       <c r="C72" t="n">
-        <v>13.7</v>
+        <v>32.6</v>
       </c>
       <c r="D72" t="n">
-        <v>646.36</v>
+        <v>1663.59</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.2</v>
+        <v>1.1</v>
       </c>
       <c r="F72" t="n">
-        <v>2599.96</v>
+        <v>6613.82</v>
       </c>
       <c r="G72" t="n">
-        <v>9.6</v>
+        <v>22.9</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1012.869999999999</v>
+      </c>
+      <c r="I72" t="n">
+        <v>354.0599999999999</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1366.92</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2851.21</v>
+        <v>5857.6</v>
       </c>
       <c r="C73" t="n">
-        <v>18.2</v>
+        <v>30.5</v>
       </c>
       <c r="D73" t="n">
-        <v>964.6799999999999</v>
+        <v>1996.18</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.6</v>
+        <v>0.1</v>
       </c>
       <c r="F73" t="n">
-        <v>3815.89</v>
+        <v>7853.77</v>
       </c>
       <c r="G73" t="n">
-        <v>12.2</v>
+        <v>21.1</v>
+      </c>
+      <c r="H73" t="n">
+        <v>907.3700000000008</v>
+      </c>
+      <c r="I73" t="n">
+        <v>332.5900000000001</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1239.950000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3937.36</v>
+        <v>6787.6</v>
       </c>
       <c r="C74" t="n">
-        <v>27.5</v>
+        <v>28.4</v>
       </c>
       <c r="D74" t="n">
-        <v>1309.53</v>
+        <v>2275.97</v>
       </c>
       <c r="E74" t="n">
-        <v>1.4</v>
+        <v>-4.2</v>
       </c>
       <c r="F74" t="n">
-        <v>5246.9</v>
+        <v>9063.57</v>
       </c>
       <c r="G74" t="n">
-        <v>19.8</v>
+        <v>18.3</v>
+      </c>
+      <c r="H74" t="n">
+        <v>930</v>
+      </c>
+      <c r="I74" t="n">
+        <v>279.7899999999997</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1209.799999999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4950.23</v>
+        <v>7728.81</v>
       </c>
       <c r="C75" t="n">
-        <v>32.6</v>
+        <v>28.2</v>
       </c>
       <c r="D75" t="n">
-        <v>1663.59</v>
+        <v>2618.03</v>
       </c>
       <c r="E75" t="n">
-        <v>1.1</v>
+        <v>-4.9</v>
       </c>
       <c r="F75" t="n">
-        <v>6613.82</v>
+        <v>10346.84</v>
       </c>
       <c r="G75" t="n">
-        <v>22.9</v>
+        <v>17.8</v>
+      </c>
+      <c r="H75" t="n">
+        <v>941.21</v>
+      </c>
+      <c r="I75" t="n">
+        <v>342.0600000000004</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1283.27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5857.6</v>
+        <v>8788.58</v>
       </c>
       <c r="C76" t="n">
-        <v>30.5</v>
+        <v>27.9</v>
       </c>
       <c r="D76" t="n">
-        <v>1996.18</v>
+        <v>2970.71</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1</v>
+        <v>-2</v>
       </c>
       <c r="F76" t="n">
-        <v>7853.77</v>
+        <v>11759.29</v>
       </c>
       <c r="G76" t="n">
-        <v>21.1</v>
+        <v>18.7</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1059.77</v>
+      </c>
+      <c r="I76" t="n">
+        <v>352.6799999999998</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1412.450000000001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>6787.6</v>
+        <v>10145.46</v>
       </c>
       <c r="C77" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="D77" t="n">
-        <v>2275.97</v>
+        <v>3347.12</v>
       </c>
       <c r="E77" t="n">
-        <v>-4.2</v>
+        <v>-3.3</v>
       </c>
       <c r="F77" t="n">
-        <v>9063.57</v>
+        <v>13492.58</v>
       </c>
       <c r="G77" t="n">
-        <v>18.3</v>
+        <v>18.8</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1356.879999999999</v>
+      </c>
+      <c r="I77" t="n">
+        <v>376.4099999999999</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1733.289999999999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>7728.81</v>
+        <v>12214.71</v>
       </c>
       <c r="C78" t="n">
-        <v>28.2</v>
+        <v>32.2</v>
       </c>
       <c r="D78" t="n">
-        <v>2618.03</v>
+        <v>4823.3</v>
       </c>
       <c r="E78" t="n">
-        <v>-4.9</v>
+        <v>-2.4</v>
       </c>
       <c r="F78" t="n">
-        <v>10346.84</v>
+        <v>17038.01</v>
       </c>
       <c r="G78" t="n">
-        <v>17.8</v>
+        <v>20.2</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2069.25</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1476.18</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3545.429999999998</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>14484.03</v>
+        <v>1471.5</v>
       </c>
       <c r="C79" t="n">
-        <v>64.8</v>
+        <v>26.7</v>
       </c>
       <c r="D79" t="n">
-        <v>3929.39</v>
+        <v>359.16</v>
       </c>
       <c r="E79" t="n">
-        <v>32.3</v>
+        <v>4.2</v>
       </c>
       <c r="F79" t="n">
-        <v>18413.41</v>
+        <v>1830.66</v>
       </c>
       <c r="G79" t="n">
-        <v>56.6</v>
+        <v>21.5</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1471.5</v>
+      </c>
+      <c r="I79" t="n">
+        <v>359.16</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1830.66</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>16339.7</v>
+        <v>2611.43</v>
       </c>
       <c r="C80" t="n">
-        <v>61.1</v>
+        <v>34.1</v>
       </c>
       <c r="D80" t="n">
-        <v>4451.49</v>
+        <v>748.67</v>
       </c>
       <c r="E80" t="n">
-        <v>33</v>
+        <v>16.1</v>
       </c>
       <c r="F80" t="n">
-        <v>20791.19</v>
+        <v>3360.1</v>
       </c>
       <c r="G80" t="n">
-        <v>54.1</v>
+        <v>29.6</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1139.93</v>
+      </c>
+      <c r="I80" t="n">
+        <v>389.5099999999999</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1529.44</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>19229.24</v>
+        <v>3895.97</v>
       </c>
       <c r="C81" t="n">
-        <v>56.5</v>
+        <v>36.7</v>
       </c>
       <c r="D81" t="n">
-        <v>6094.24</v>
+        <v>1111.66</v>
       </c>
       <c r="E81" t="n">
-        <v>21.9</v>
+        <v>15.3</v>
       </c>
       <c r="F81" t="n">
-        <v>25323.48</v>
+        <v>5007.63</v>
       </c>
       <c r="G81" t="n">
-        <v>46.5</v>
+        <v>31.3</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1284.54</v>
+      </c>
+      <c r="I81" t="n">
+        <v>362.9900000000001</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1647.53</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1471.5</v>
+        <v>5299.37</v>
       </c>
       <c r="C82" t="n">
-        <v>26.7</v>
+        <v>34.6</v>
       </c>
       <c r="D82" t="n">
-        <v>359.16</v>
+        <v>1510.2</v>
       </c>
       <c r="E82" t="n">
-        <v>4.2</v>
+        <v>15.3</v>
       </c>
       <c r="F82" t="n">
-        <v>1830.66</v>
+        <v>6809.57</v>
       </c>
       <c r="G82" t="n">
-        <v>21.5</v>
+        <v>29.8</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1403.4</v>
+      </c>
+      <c r="I82" t="n">
+        <v>398.54</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1801.94</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2611.43</v>
+        <v>7040.71</v>
       </c>
       <c r="C83" t="n">
-        <v>34.1</v>
+        <v>42.3</v>
       </c>
       <c r="D83" t="n">
-        <v>748.67</v>
+        <v>2003.62</v>
       </c>
       <c r="E83" t="n">
-        <v>16.1</v>
+        <v>20.5</v>
       </c>
       <c r="F83" t="n">
-        <v>3360.1</v>
+        <v>9044.33</v>
       </c>
       <c r="G83" t="n">
-        <v>29.6</v>
+        <v>36.8</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1741.34</v>
+      </c>
+      <c r="I83" t="n">
+        <v>493.4199999999998</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2234.76</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3895.97</v>
+        <v>8806.889999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>36.7</v>
+        <v>50.4</v>
       </c>
       <c r="D84" t="n">
-        <v>1111.66</v>
+        <v>2448.04</v>
       </c>
       <c r="E84" t="n">
-        <v>15.3</v>
+        <v>22.6</v>
       </c>
       <c r="F84" t="n">
-        <v>5007.63</v>
+        <v>11254.93</v>
       </c>
       <c r="G84" t="n">
-        <v>31.3</v>
+        <v>43.3</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1766.179999999999</v>
+      </c>
+      <c r="I84" t="n">
+        <v>444.4200000000001</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2210.6</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>5299.37</v>
+        <v>10734.43</v>
       </c>
       <c r="C85" t="n">
-        <v>34.6</v>
+        <v>58.2</v>
       </c>
       <c r="D85" t="n">
-        <v>1510.2</v>
+        <v>2878.2</v>
       </c>
       <c r="E85" t="n">
-        <v>15.3</v>
+        <v>26.5</v>
       </c>
       <c r="F85" t="n">
-        <v>6809.57</v>
+        <v>13612.63</v>
       </c>
       <c r="G85" t="n">
-        <v>29.8</v>
+        <v>50.2</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1927.540000000001</v>
+      </c>
+      <c r="I85" t="n">
+        <v>430.1599999999999</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2357.699999999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>7040.71</v>
+        <v>12721.11</v>
       </c>
       <c r="C86" t="n">
-        <v>42.3</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>2003.62</v>
+        <v>3401.98</v>
       </c>
       <c r="E86" t="n">
-        <v>20.5</v>
+        <v>30</v>
       </c>
       <c r="F86" t="n">
-        <v>9044.33</v>
+        <v>16123.09</v>
       </c>
       <c r="G86" t="n">
-        <v>36.8</v>
+        <v>55.9</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1986.68</v>
+      </c>
+      <c r="I86" t="n">
+        <v>523.7800000000002</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2510.460000000001</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>8806.889999999999</v>
+        <v>14484.03</v>
       </c>
       <c r="C87" t="n">
-        <v>50.4</v>
+        <v>64.8</v>
       </c>
       <c r="D87" t="n">
-        <v>2448.04</v>
+        <v>3929.39</v>
       </c>
       <c r="E87" t="n">
-        <v>22.6</v>
+        <v>32.3</v>
       </c>
       <c r="F87" t="n">
-        <v>11254.93</v>
+        <v>18413.41</v>
       </c>
       <c r="G87" t="n">
-        <v>43.3</v>
+        <v>56.6</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1762.92</v>
+      </c>
+      <c r="I87" t="n">
+        <v>527.4099999999999</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2290.32</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>10734.43</v>
+        <v>16339.7</v>
       </c>
       <c r="C88" t="n">
-        <v>58.2</v>
+        <v>61.1</v>
       </c>
       <c r="D88" t="n">
-        <v>2878.2</v>
+        <v>4451.49</v>
       </c>
       <c r="E88" t="n">
-        <v>26.5</v>
+        <v>33</v>
       </c>
       <c r="F88" t="n">
-        <v>13612.63</v>
+        <v>20791.19</v>
       </c>
       <c r="G88" t="n">
-        <v>50.2</v>
+        <v>54.1</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1855.67</v>
+      </c>
+      <c r="I88" t="n">
+        <v>522.0999999999999</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2377.779999999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>12721.11</v>
+        <v>19229.24</v>
       </c>
       <c r="C89" t="n">
-        <v>64.59999999999999</v>
+        <v>56.5</v>
       </c>
       <c r="D89" t="n">
-        <v>3401.98</v>
+        <v>6094.24</v>
       </c>
       <c r="E89" t="n">
-        <v>30</v>
+        <v>21.9</v>
       </c>
       <c r="F89" t="n">
-        <v>16123.09</v>
+        <v>25323.48</v>
       </c>
       <c r="G89" t="n">
-        <v>55.9</v>
+        <v>46.5</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2889.540000000001</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1642.75</v>
+      </c>
+      <c r="J89" t="n">
+        <v>4532.290000000001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>11918.17</v>
+        <v>1449.67</v>
       </c>
       <c r="C90" t="n">
-        <v>-17.7</v>
+        <v>-1.5</v>
       </c>
       <c r="D90" t="n">
-        <v>3149.55</v>
+        <v>367.71</v>
       </c>
       <c r="E90" t="n">
-        <v>-19.8</v>
+        <v>2.4</v>
       </c>
       <c r="F90" t="n">
-        <v>15067.72</v>
+        <v>1817.37</v>
       </c>
       <c r="G90" t="n">
-        <v>-18.2</v>
+        <v>-0.7</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1449.67</v>
+      </c>
+      <c r="I90" t="n">
+        <v>367.71</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1817.37</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>13013.47</v>
+        <v>2744.74</v>
       </c>
       <c r="C91" t="n">
-        <v>-20.4</v>
+        <v>5.1</v>
       </c>
       <c r="D91" t="n">
-        <v>3501.03</v>
+        <v>775.62</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.4</v>
+        <v>3.6</v>
       </c>
       <c r="F91" t="n">
-        <v>16514.5</v>
+        <v>3520.36</v>
       </c>
       <c r="G91" t="n">
-        <v>-20.6</v>
+        <v>4.8</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1295.07</v>
+      </c>
+      <c r="I91" t="n">
+        <v>407.91</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1702.99</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>15539.28</v>
+        <v>4012.7</v>
       </c>
       <c r="C92" t="n">
-        <v>-19.7</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>4884.78</v>
+        <v>1075.04</v>
       </c>
       <c r="E92" t="n">
-        <v>-21.4</v>
+        <v>-3.3</v>
       </c>
       <c r="F92" t="n">
-        <v>20424.06</v>
+        <v>5087.74</v>
       </c>
       <c r="G92" t="n">
-        <v>-20.1</v>
+        <v>1.6</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1267.96</v>
+      </c>
+      <c r="I92" t="n">
+        <v>299.42</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1567.38</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1449.67</v>
+        <v>5362.68</v>
       </c>
       <c r="C93" t="n">
-        <v>-1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D93" t="n">
-        <v>367.71</v>
+        <v>1417.63</v>
       </c>
       <c r="E93" t="n">
-        <v>2.4</v>
+        <v>-6.1</v>
       </c>
       <c r="F93" t="n">
-        <v>1817.37</v>
+        <v>6780.31</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.7</v>
+        <v>-0.4</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1349.98</v>
+      </c>
+      <c r="I93" t="n">
+        <v>342.5900000000001</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1692.570000000001</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2744.74</v>
+        <v>7132.63</v>
       </c>
       <c r="C94" t="n">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="D94" t="n">
-        <v>775.62</v>
+        <v>1808.6</v>
       </c>
       <c r="E94" t="n">
-        <v>3.6</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>3520.36</v>
+        <v>8941.219999999999</v>
       </c>
       <c r="G94" t="n">
-        <v>4.8</v>
+        <v>-1.1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1769.95</v>
+      </c>
+      <c r="I94" t="n">
+        <v>390.9699999999998</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2160.909999999999</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4012.7</v>
+        <v>8416.469999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>-4.4</v>
       </c>
       <c r="D95" t="n">
-        <v>1075.04</v>
+        <v>2093.53</v>
       </c>
       <c r="E95" t="n">
-        <v>-3.3</v>
+        <v>-14.5</v>
       </c>
       <c r="F95" t="n">
-        <v>5087.74</v>
+        <v>10510</v>
       </c>
       <c r="G95" t="n">
-        <v>1.6</v>
+        <v>-6.6</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1283.839999999999</v>
+      </c>
+      <c r="I95" t="n">
+        <v>284.9300000000003</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1568.780000000001</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>5362.68</v>
+        <v>9501.49</v>
       </c>
       <c r="C96" t="n">
-        <v>1.2</v>
+        <v>-11.5</v>
       </c>
       <c r="D96" t="n">
-        <v>1417.63</v>
+        <v>2381.72</v>
       </c>
       <c r="E96" t="n">
-        <v>-6.1</v>
+        <v>-17.2</v>
       </c>
       <c r="F96" t="n">
-        <v>6780.31</v>
+        <v>11883.21</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.4</v>
+        <v>-12.7</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1085.02</v>
+      </c>
+      <c r="I96" t="n">
+        <v>288.1899999999996</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1373.209999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>7132.63</v>
+        <v>10802.33</v>
       </c>
       <c r="C97" t="n">
-        <v>1.3</v>
+        <v>-15.1</v>
       </c>
       <c r="D97" t="n">
-        <v>1808.6</v>
+        <v>2814.67</v>
       </c>
       <c r="E97" t="n">
-        <v>-9.699999999999999</v>
+        <v>-17.3</v>
       </c>
       <c r="F97" t="n">
-        <v>8941.219999999999</v>
+        <v>13617</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.1</v>
+        <v>-15.5</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1300.84</v>
+      </c>
+      <c r="I97" t="n">
+        <v>432.9500000000003</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1733.790000000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>8416.469999999999</v>
+        <v>11918.17</v>
       </c>
       <c r="C98" t="n">
-        <v>-4.4</v>
+        <v>-17.7</v>
       </c>
       <c r="D98" t="n">
-        <v>2093.53</v>
+        <v>3149.55</v>
       </c>
       <c r="E98" t="n">
-        <v>-14.5</v>
+        <v>-19.8</v>
       </c>
       <c r="F98" t="n">
-        <v>10510</v>
+        <v>15067.72</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.6</v>
+        <v>-18.2</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1115.84</v>
+      </c>
+      <c r="I98" t="n">
+        <v>334.8800000000001</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1450.719999999999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>9501.49</v>
+        <v>13013.47</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.5</v>
+        <v>-20.4</v>
       </c>
       <c r="D99" t="n">
-        <v>2381.72</v>
+        <v>3501.03</v>
       </c>
       <c r="E99" t="n">
-        <v>-17.2</v>
+        <v>-21.4</v>
       </c>
       <c r="F99" t="n">
-        <v>11883.21</v>
+        <v>16514.5</v>
       </c>
       <c r="G99" t="n">
-        <v>-12.7</v>
+        <v>-20.6</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1095.299999999999</v>
+      </c>
+      <c r="I99" t="n">
+        <v>351.48</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1446.780000000001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>10802.33</v>
+        <v>15539.28</v>
       </c>
       <c r="C100" t="n">
-        <v>-15.1</v>
+        <v>-19.7</v>
       </c>
       <c r="D100" t="n">
-        <v>2814.67</v>
+        <v>4884.78</v>
       </c>
       <c r="E100" t="n">
-        <v>-17.3</v>
+        <v>-21.4</v>
       </c>
       <c r="F100" t="n">
-        <v>13617</v>
+        <v>20424.06</v>
       </c>
       <c r="G100" t="n">
-        <v>-15.5</v>
+        <v>-20.1</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2525.810000000001</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1383.75</v>
+      </c>
+      <c r="J100" t="n">
+        <v>3909.560000000001</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>21953.27</v>
+        <v>1671.84</v>
       </c>
       <c r="C101" t="n">
-        <v>84.2</v>
+        <v>15.3</v>
       </c>
       <c r="D101" t="n">
-        <v>5812.68</v>
+        <v>383.72</v>
       </c>
       <c r="E101" t="n">
-        <v>84.59999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="F101" t="n">
-        <v>27765.95</v>
+        <v>2055.56</v>
       </c>
       <c r="G101" t="n">
-        <v>84.3</v>
+        <v>13.1</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1671.84</v>
+      </c>
+      <c r="I101" t="n">
+        <v>383.72</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2055.56</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>24878.68</v>
+        <v>3375.15</v>
       </c>
       <c r="C102" t="n">
-        <v>91.2</v>
+        <v>22.4</v>
       </c>
       <c r="D102" t="n">
-        <v>6746.25</v>
+        <v>1029.53</v>
       </c>
       <c r="E102" t="n">
-        <v>92.7</v>
+        <v>32.6</v>
       </c>
       <c r="F102" t="n">
-        <v>31624.94</v>
+        <v>4404.68</v>
       </c>
       <c r="G102" t="n">
-        <v>91.5</v>
+        <v>24.7</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1703.31</v>
+      </c>
+      <c r="I102" t="n">
+        <v>645.8099999999999</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2349.12</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>29639.4</v>
+        <v>5492.4</v>
       </c>
       <c r="C103" t="n">
-        <v>88.8</v>
+        <v>36.9</v>
       </c>
       <c r="D103" t="n">
-        <v>8517.809999999999</v>
+        <v>1560.08</v>
       </c>
       <c r="E103" t="n">
-        <v>54.8</v>
+        <v>45.1</v>
       </c>
       <c r="F103" t="n">
-        <v>38157.21</v>
+        <v>7052.48</v>
       </c>
       <c r="G103" t="n">
-        <v>80</v>
+        <v>38.6</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2117.25</v>
+      </c>
+      <c r="I103" t="n">
+        <v>530.55</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2647.799999999999</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1671.84</v>
+        <v>7874.18</v>
       </c>
       <c r="C104" t="n">
-        <v>15.3</v>
+        <v>46.8</v>
       </c>
       <c r="D104" t="n">
-        <v>383.72</v>
+        <v>2229.44</v>
       </c>
       <c r="E104" t="n">
-        <v>4.4</v>
+        <v>57.3</v>
       </c>
       <c r="F104" t="n">
-        <v>2055.56</v>
+        <v>10103.62</v>
       </c>
       <c r="G104" t="n">
-        <v>13.1</v>
+        <v>49</v>
+      </c>
+      <c r="H104" t="n">
+        <v>2381.780000000001</v>
+      </c>
+      <c r="I104" t="n">
+        <v>669.3600000000001</v>
+      </c>
+      <c r="J104" t="n">
+        <v>3051.140000000001</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3375.15</v>
+        <v>10984.72</v>
       </c>
       <c r="C105" t="n">
-        <v>22.4</v>
+        <v>54</v>
       </c>
       <c r="D105" t="n">
-        <v>1029.53</v>
+        <v>3062.26</v>
       </c>
       <c r="E105" t="n">
-        <v>32.6</v>
+        <v>69.3</v>
       </c>
       <c r="F105" t="n">
-        <v>4404.68</v>
+        <v>14046.98</v>
       </c>
       <c r="G105" t="n">
-        <v>24.7</v>
+        <v>57.1</v>
+      </c>
+      <c r="H105" t="n">
+        <v>3110.539999999999</v>
+      </c>
+      <c r="I105" t="n">
+        <v>832.8200000000002</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3943.359999999999</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>5492.4</v>
+        <v>13708.66</v>
       </c>
       <c r="C106" t="n">
-        <v>36.9</v>
+        <v>62.9</v>
       </c>
       <c r="D106" t="n">
-        <v>1560.08</v>
+        <v>3664.42</v>
       </c>
       <c r="E106" t="n">
-        <v>45.1</v>
+        <v>75</v>
       </c>
       <c r="F106" t="n">
-        <v>7052.48</v>
+        <v>17373.08</v>
       </c>
       <c r="G106" t="n">
-        <v>38.6</v>
+        <v>65.3</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2723.940000000001</v>
+      </c>
+      <c r="I106" t="n">
+        <v>602.1599999999999</v>
+      </c>
+      <c r="J106" t="n">
+        <v>3326.100000000002</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>7874.18</v>
+        <v>16368.87</v>
       </c>
       <c r="C107" t="n">
-        <v>46.8</v>
+        <v>72.3</v>
       </c>
       <c r="D107" t="n">
-        <v>2229.44</v>
+        <v>4382.77</v>
       </c>
       <c r="E107" t="n">
-        <v>57.3</v>
+        <v>84</v>
       </c>
       <c r="F107" t="n">
-        <v>10103.62</v>
+        <v>20751.64</v>
       </c>
       <c r="G107" t="n">
-        <v>49</v>
+        <v>74.59999999999999</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2660.210000000001</v>
+      </c>
+      <c r="I107" t="n">
+        <v>718.3500000000004</v>
+      </c>
+      <c r="J107" t="n">
+        <v>3378.559999999998</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>10984.72</v>
+        <v>19157.75</v>
       </c>
       <c r="C108" t="n">
-        <v>54</v>
+        <v>77.3</v>
       </c>
       <c r="D108" t="n">
-        <v>3062.26</v>
+        <v>5109.81</v>
       </c>
       <c r="E108" t="n">
-        <v>69.3</v>
+        <v>81.5</v>
       </c>
       <c r="F108" t="n">
-        <v>14046.98</v>
+        <v>24267.56</v>
       </c>
       <c r="G108" t="n">
-        <v>57.1</v>
+        <v>78.2</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2788.879999999999</v>
+      </c>
+      <c r="I108" t="n">
+        <v>727.04</v>
+      </c>
+      <c r="J108" t="n">
+        <v>3515.920000000002</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>13708.66</v>
+        <v>21953.27</v>
       </c>
       <c r="C109" t="n">
-        <v>62.9</v>
+        <v>84.2</v>
       </c>
       <c r="D109" t="n">
-        <v>3664.42</v>
+        <v>5812.68</v>
       </c>
       <c r="E109" t="n">
-        <v>75</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="F109" t="n">
-        <v>17373.08</v>
+        <v>27765.95</v>
       </c>
       <c r="G109" t="n">
-        <v>65.3</v>
+        <v>84.3</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2795.52</v>
+      </c>
+      <c r="I109" t="n">
+        <v>702.8699999999999</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3498.389999999999</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>16368.87</v>
+        <v>24878.68</v>
       </c>
       <c r="C110" t="n">
-        <v>72.3</v>
+        <v>91.2</v>
       </c>
       <c r="D110" t="n">
-        <v>4382.77</v>
+        <v>6746.25</v>
       </c>
       <c r="E110" t="n">
-        <v>84</v>
+        <v>92.7</v>
       </c>
       <c r="F110" t="n">
-        <v>20751.64</v>
+        <v>31624.94</v>
       </c>
       <c r="G110" t="n">
-        <v>74.59999999999999</v>
+        <v>91.5</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2925.41</v>
+      </c>
+      <c r="I110" t="n">
+        <v>933.5699999999997</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3858.989999999998</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>19157.75</v>
+        <v>29639.4</v>
       </c>
       <c r="C111" t="n">
-        <v>77.3</v>
+        <v>88.8</v>
       </c>
       <c r="D111" t="n">
-        <v>5109.81</v>
+        <v>8517.809999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>81.5</v>
+        <v>54.8</v>
       </c>
       <c r="F111" t="n">
-        <v>24267.56</v>
+        <v>38157.21</v>
       </c>
       <c r="G111" t="n">
-        <v>78.2</v>
+        <v>80</v>
+      </c>
+      <c r="H111" t="n">
+        <v>4760.720000000001</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1771.559999999999</v>
+      </c>
+      <c r="J111" t="n">
+        <v>6532.27</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>26100.149</v>
+        <v>2956.62</v>
       </c>
       <c r="C112" t="n">
-        <v>18.9</v>
+        <v>75.8</v>
       </c>
       <c r="D112" t="n">
-        <v>5217.4224</v>
+        <v>586.49</v>
       </c>
       <c r="E112" t="n">
-        <v>-10.2</v>
+        <v>49.5</v>
       </c>
       <c r="F112" t="n">
-        <v>31317.5714</v>
+        <v>3543.11</v>
       </c>
       <c r="G112" t="n">
-        <v>12.8</v>
+        <v>70.8</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2956.62</v>
+      </c>
+      <c r="I112" t="n">
+        <v>586.49</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3543.11</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>29725.947</v>
+        <v>5598.39</v>
       </c>
       <c r="C113" t="n">
-        <v>19.5</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>5953.5376</v>
+        <v>1237.79</v>
       </c>
       <c r="E113" t="n">
-        <v>-11.8</v>
+        <v>20.2</v>
       </c>
       <c r="F113" t="n">
-        <v>35679.4846</v>
+        <v>6836.18</v>
       </c>
       <c r="G113" t="n">
-        <v>12.8</v>
+        <v>55.2</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2641.77</v>
+      </c>
+      <c r="I113" t="n">
+        <v>651.3</v>
+      </c>
+      <c r="J113" t="n">
+        <v>3293.07</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>36053.6415</v>
+        <v>8774.700000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>21.3</v>
+        <v>59.8</v>
       </c>
       <c r="D114" t="n">
-        <v>7899.6891</v>
+        <v>1907.85</v>
       </c>
       <c r="E114" t="n">
-        <v>-9.300000000000001</v>
+        <v>22.3</v>
       </c>
       <c r="F114" t="n">
-        <v>43953.3306</v>
+        <v>10682.55</v>
       </c>
       <c r="G114" t="n">
-        <v>14.4</v>
+        <v>51.5</v>
+      </c>
+      <c r="H114" t="n">
+        <v>3176.31</v>
+      </c>
+      <c r="I114" t="n">
+        <v>670.0599999999999</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3846.369999999999</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2956.62</v>
+        <v>11089.19</v>
       </c>
       <c r="C115" t="n">
-        <v>75.8</v>
+        <v>40.8</v>
       </c>
       <c r="D115" t="n">
-        <v>586.49</v>
+        <v>2409.6</v>
       </c>
       <c r="E115" t="n">
-        <v>49.5</v>
+        <v>8.1</v>
       </c>
       <c r="F115" t="n">
-        <v>3543.11</v>
+        <v>13498.79</v>
       </c>
       <c r="G115" t="n">
-        <v>70.8</v>
+        <v>33.6</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2314.49</v>
+      </c>
+      <c r="I115" t="n">
+        <v>501.75</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2816.240000000002</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>5598.39</v>
+        <v>13841.15</v>
       </c>
       <c r="C116" t="n">
-        <v>65.90000000000001</v>
+        <v>26</v>
       </c>
       <c r="D116" t="n">
-        <v>1237.79</v>
+        <v>3054.06</v>
       </c>
       <c r="E116" t="n">
-        <v>20.2</v>
+        <v>-0.3</v>
       </c>
       <c r="F116" t="n">
-        <v>6836.18</v>
+        <v>16895.21</v>
       </c>
       <c r="G116" t="n">
-        <v>55.2</v>
+        <v>20.3</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2751.959999999999</v>
+      </c>
+      <c r="I116" t="n">
+        <v>644.46</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3396.419999999998</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>8774.700000000001</v>
+        <v>15954.39</v>
       </c>
       <c r="C117" t="n">
-        <v>59.8</v>
+        <v>16.4</v>
       </c>
       <c r="D117" t="n">
-        <v>1907.85</v>
+        <v>3443.54</v>
       </c>
       <c r="E117" t="n">
-        <v>22.3</v>
+        <v>-6</v>
       </c>
       <c r="F117" t="n">
-        <v>10682.55</v>
+        <v>19397.93</v>
       </c>
       <c r="G117" t="n">
-        <v>51.5</v>
+        <v>11.7</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2113.24</v>
+      </c>
+      <c r="I117" t="n">
+        <v>389.48</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2502.720000000001</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>11089.19</v>
+        <v>18419.68</v>
       </c>
       <c r="C118" t="n">
-        <v>40.8</v>
+        <v>12.5</v>
       </c>
       <c r="D118" t="n">
-        <v>2409.6</v>
+        <v>3888.51</v>
       </c>
       <c r="E118" t="n">
-        <v>8.1</v>
+        <v>-11.3</v>
       </c>
       <c r="F118" t="n">
-        <v>13498.79</v>
+        <v>22308.19</v>
       </c>
       <c r="G118" t="n">
-        <v>33.6</v>
+        <v>7.5</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2465.290000000001</v>
+      </c>
+      <c r="I118" t="n">
+        <v>444.9700000000003</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2910.259999999998</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>13841.15</v>
+        <v>22374.96</v>
       </c>
       <c r="C119" t="n">
-        <v>26</v>
+        <v>16.8</v>
       </c>
       <c r="D119" t="n">
-        <v>3054.06</v>
+        <v>4610.89</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.3</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>16895.21</v>
+        <v>26985.85</v>
       </c>
       <c r="G119" t="n">
-        <v>20.3</v>
+        <v>11.2</v>
+      </c>
+      <c r="H119" t="n">
+        <v>3955.279999999999</v>
+      </c>
+      <c r="I119" t="n">
+        <v>722.3800000000001</v>
+      </c>
+      <c r="J119" t="n">
+        <v>4677.66</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>15954.39</v>
+        <v>26100.149</v>
       </c>
       <c r="C120" t="n">
-        <v>16.4</v>
+        <v>18.9</v>
       </c>
       <c r="D120" t="n">
-        <v>3443.54</v>
+        <v>5217.4224</v>
       </c>
       <c r="E120" t="n">
-        <v>-6</v>
+        <v>-10.2</v>
       </c>
       <c r="F120" t="n">
-        <v>19397.93</v>
+        <v>31317.5714</v>
       </c>
       <c r="G120" t="n">
-        <v>11.7</v>
+        <v>12.8</v>
+      </c>
+      <c r="H120" t="n">
+        <v>3725.189000000002</v>
+      </c>
+      <c r="I120" t="n">
+        <v>606.5324000000001</v>
+      </c>
+      <c r="J120" t="n">
+        <v>4331.721400000002</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>18419.68</v>
+        <v>29725.947</v>
       </c>
       <c r="C121" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="D121" t="n">
-        <v>3888.51</v>
+        <v>5953.5376</v>
       </c>
       <c r="E121" t="n">
-        <v>-11.3</v>
+        <v>-11.8</v>
       </c>
       <c r="F121" t="n">
-        <v>22308.19</v>
+        <v>35679.4846</v>
       </c>
       <c r="G121" t="n">
-        <v>7.5</v>
+        <v>12.8</v>
+      </c>
+      <c r="H121" t="n">
+        <v>3625.797999999999</v>
+      </c>
+      <c r="I121" t="n">
+        <v>736.1151999999993</v>
+      </c>
+      <c r="J121" t="n">
+        <v>4361.913200000003</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>22374.96</v>
+        <v>36053.6415</v>
       </c>
       <c r="C122" t="n">
-        <v>16.8</v>
+        <v>21.3</v>
       </c>
       <c r="D122" t="n">
-        <v>4610.89</v>
+        <v>7899.6891</v>
       </c>
       <c r="E122" t="n">
-        <v>-9.800000000000001</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="F122" t="n">
-        <v>26985.85</v>
+        <v>43953.3306</v>
       </c>
       <c r="G122" t="n">
-        <v>11.2</v>
+        <v>14.4</v>
+      </c>
+      <c r="H122" t="n">
+        <v>6327.694499999998</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1946.1515</v>
+      </c>
+      <c r="J122" t="n">
+        <v>8273.845999999998</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>30711.3603</v>
+        <v>3815.9305</v>
       </c>
       <c r="C123" t="n">
-        <v>17.7</v>
+        <v>29.1</v>
       </c>
       <c r="D123" t="n">
-        <v>5706.017</v>
+        <v>655.3697</v>
       </c>
       <c r="E123" t="n">
-        <v>9.4</v>
+        <v>11.7</v>
       </c>
       <c r="F123" t="n">
-        <v>36417.3773</v>
+        <v>4471.3002</v>
       </c>
       <c r="G123" t="n">
-        <v>16.3</v>
+        <v>26.2</v>
+      </c>
+      <c r="H123" t="n">
+        <v>3815.9305</v>
+      </c>
+      <c r="I123" t="n">
+        <v>655.3697</v>
+      </c>
+      <c r="J123" t="n">
+        <v>4471.3002</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>34033.2032</v>
+        <v>7286.6289</v>
       </c>
       <c r="C124" t="n">
-        <v>14.5</v>
+        <v>30.2</v>
       </c>
       <c r="D124" t="n">
-        <v>6547.906</v>
+        <v>1320.5822</v>
       </c>
       <c r="E124" t="n">
-        <v>10</v>
+        <v>6.7</v>
       </c>
       <c r="F124" t="n">
-        <v>40581.1092</v>
+        <v>8607.2111</v>
       </c>
       <c r="G124" t="n">
-        <v>13.7</v>
+        <v>25.9</v>
+      </c>
+      <c r="H124" t="n">
+        <v>3470.6984</v>
+      </c>
+      <c r="I124" t="n">
+        <v>665.2125000000001</v>
+      </c>
+      <c r="J124" t="n">
+        <v>4135.910900000001</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>39720.2094</v>
+        <v>10016.9251</v>
       </c>
       <c r="C125" t="n">
-        <v>10.1</v>
+        <v>14.2</v>
       </c>
       <c r="D125" t="n">
-        <v>8899.1764</v>
+        <v>1838.9614</v>
       </c>
       <c r="E125" t="n">
-        <v>10.8</v>
+        <v>-3.6</v>
       </c>
       <c r="F125" t="n">
-        <v>48619.3858</v>
+        <v>11855.8865</v>
       </c>
       <c r="G125" t="n">
-        <v>10.2</v>
+        <v>11</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2730.296200000001</v>
+      </c>
+      <c r="I125" t="n">
+        <v>518.3791999999999</v>
+      </c>
+      <c r="J125" t="n">
+        <v>3248.6754</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>3815.9305</v>
+        <v>13303.9168</v>
       </c>
       <c r="C126" t="n">
-        <v>29.1</v>
+        <v>20</v>
       </c>
       <c r="D126" t="n">
-        <v>655.3697</v>
+        <v>2361.4093</v>
       </c>
       <c r="E126" t="n">
-        <v>11.7</v>
+        <v>-2</v>
       </c>
       <c r="F126" t="n">
-        <v>4471.3002</v>
+        <v>15665.3261</v>
       </c>
       <c r="G126" t="n">
-        <v>26.2</v>
+        <v>16</v>
+      </c>
+      <c r="H126" t="n">
+        <v>3286.9917</v>
+      </c>
+      <c r="I126" t="n">
+        <v>522.4478999999999</v>
+      </c>
+      <c r="J126" t="n">
+        <v>3809.4396</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>7286.6289</v>
+        <v>17467.4654</v>
       </c>
       <c r="C127" t="n">
-        <v>30.2</v>
+        <v>26.2</v>
       </c>
       <c r="D127" t="n">
-        <v>1320.5822</v>
+        <v>3189.9144</v>
       </c>
       <c r="E127" t="n">
-        <v>6.7</v>
+        <v>4.4</v>
       </c>
       <c r="F127" t="n">
-        <v>8607.2111</v>
+        <v>20657.3798</v>
       </c>
       <c r="G127" t="n">
-        <v>25.9</v>
+        <v>22.3</v>
+      </c>
+      <c r="H127" t="n">
+        <v>4163.5486</v>
+      </c>
+      <c r="I127" t="n">
+        <v>828.5051000000003</v>
+      </c>
+      <c r="J127" t="n">
+        <v>4992.053699999999</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>10016.9251</v>
+        <v>20374.5144</v>
       </c>
       <c r="C128" t="n">
-        <v>14.2</v>
+        <v>27.7</v>
       </c>
       <c r="D128" t="n">
-        <v>1838.9614</v>
+        <v>3769.9317</v>
       </c>
       <c r="E128" t="n">
-        <v>-3.6</v>
+        <v>9.5</v>
       </c>
       <c r="F128" t="n">
-        <v>11855.8865</v>
+        <v>24144.4461</v>
       </c>
       <c r="G128" t="n">
-        <v>11</v>
+        <v>24.5</v>
+      </c>
+      <c r="H128" t="n">
+        <v>2907.048999999999</v>
+      </c>
+      <c r="I128" t="n">
+        <v>580.0173</v>
+      </c>
+      <c r="J128" t="n">
+        <v>3487.066300000002</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>13303.9168</v>
+        <v>23469.1543</v>
       </c>
       <c r="C129" t="n">
-        <v>20</v>
+        <v>27.4</v>
       </c>
       <c r="D129" t="n">
-        <v>2361.4093</v>
+        <v>4286.1329</v>
       </c>
       <c r="E129" t="n">
-        <v>-2</v>
+        <v>10.2</v>
       </c>
       <c r="F129" t="n">
-        <v>15665.3261</v>
+        <v>27755.2872</v>
       </c>
       <c r="G129" t="n">
-        <v>16</v>
+        <v>24.4</v>
+      </c>
+      <c r="H129" t="n">
+        <v>3094.639899999998</v>
+      </c>
+      <c r="I129" t="n">
+        <v>516.2011999999995</v>
+      </c>
+      <c r="J129" t="n">
+        <v>3610.841099999998</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>17467.4654</v>
+        <v>27627.8922</v>
       </c>
       <c r="C130" t="n">
-        <v>26.2</v>
+        <v>23.5</v>
       </c>
       <c r="D130" t="n">
-        <v>3189.9144</v>
+        <v>5065.8053</v>
       </c>
       <c r="E130" t="n">
-        <v>4.4</v>
+        <v>9.9</v>
       </c>
       <c r="F130" t="n">
-        <v>20657.3798</v>
+        <v>32693.6975</v>
       </c>
       <c r="G130" t="n">
-        <v>22.3</v>
+        <v>21.2</v>
+      </c>
+      <c r="H130" t="n">
+        <v>4158.7379</v>
+      </c>
+      <c r="I130" t="n">
+        <v>779.6724000000004</v>
+      </c>
+      <c r="J130" t="n">
+        <v>4938.4103</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>20374.5144</v>
+        <v>30711.3603</v>
       </c>
       <c r="C131" t="n">
-        <v>27.7</v>
+        <v>17.7</v>
       </c>
       <c r="D131" t="n">
-        <v>3769.9317</v>
+        <v>5706.017</v>
       </c>
       <c r="E131" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="F131" t="n">
-        <v>24144.4461</v>
+        <v>36417.3773</v>
       </c>
       <c r="G131" t="n">
-        <v>24.5</v>
+        <v>16.3</v>
+      </c>
+      <c r="H131" t="n">
+        <v>3083.468100000002</v>
+      </c>
+      <c r="I131" t="n">
+        <v>640.2116999999998</v>
+      </c>
+      <c r="J131" t="n">
+        <v>3723.679800000002</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>23469.1543</v>
+        <v>34033.2032</v>
       </c>
       <c r="C132" t="n">
-        <v>27.4</v>
+        <v>14.5</v>
       </c>
       <c r="D132" t="n">
-        <v>4286.1329</v>
+        <v>6547.906</v>
       </c>
       <c r="E132" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="F132" t="n">
-        <v>27755.2872</v>
+        <v>40581.1092</v>
       </c>
       <c r="G132" t="n">
-        <v>24.4</v>
+        <v>13.7</v>
+      </c>
+      <c r="H132" t="n">
+        <v>3321.842900000003</v>
+      </c>
+      <c r="I132" t="n">
+        <v>841.8890000000001</v>
+      </c>
+      <c r="J132" t="n">
+        <v>4163.731899999999</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>27627.8922</v>
+        <v>39720.2094</v>
       </c>
       <c r="C133" t="n">
-        <v>23.5</v>
+        <v>10.1</v>
       </c>
       <c r="D133" t="n">
-        <v>5065.8053</v>
+        <v>8899.1764</v>
       </c>
       <c r="E133" t="n">
-        <v>9.9</v>
+        <v>10.8</v>
       </c>
       <c r="F133" t="n">
-        <v>32693.6975</v>
+        <v>48619.3858</v>
       </c>
       <c r="G133" t="n">
-        <v>21.2</v>
+        <v>10.2</v>
+      </c>
+      <c r="H133" t="n">
+        <v>5687.006199999996</v>
+      </c>
+      <c r="I133" t="n">
+        <v>2351.2704</v>
+      </c>
+      <c r="J133" t="n">
+        <v>8038.276599999997</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>32346.8056</v>
+        <v>2763.0382</v>
       </c>
       <c r="C134" t="n">
-        <v>5.3</v>
+        <v>-27.6</v>
       </c>
       <c r="D134" t="n">
-        <v>6477.7035</v>
+        <v>602.7385</v>
       </c>
       <c r="E134" t="n">
-        <v>13.5</v>
+        <v>-8</v>
       </c>
       <c r="F134" t="n">
-        <v>38824.5091</v>
+        <v>3365.7767</v>
       </c>
       <c r="G134" t="n">
-        <v>6.6</v>
+        <v>-24.7</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2763.0382</v>
+      </c>
+      <c r="I134" t="n">
+        <v>602.7385</v>
+      </c>
+      <c r="J134" t="n">
+        <v>3365.7767</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>37183.7553</v>
+        <v>5870.3074</v>
       </c>
       <c r="C135" t="n">
-        <v>9.300000000000001</v>
+        <v>-19.4</v>
       </c>
       <c r="D135" t="n">
-        <v>7599.2927</v>
+        <v>1228.6889</v>
       </c>
       <c r="E135" t="n">
-        <v>16.1</v>
+        <v>-7</v>
       </c>
       <c r="F135" t="n">
-        <v>44783.048</v>
+        <v>7098.9963</v>
       </c>
       <c r="G135" t="n">
-        <v>10.4</v>
+        <v>-17.5</v>
+      </c>
+      <c r="H135" t="n">
+        <v>3107.2692</v>
+      </c>
+      <c r="I135" t="n">
+        <v>625.9504000000001</v>
+      </c>
+      <c r="J135" t="n">
+        <v>3733.2196</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>43799.2092</v>
+        <v>8471.7575</v>
       </c>
       <c r="C136" t="n">
-        <v>11.4</v>
+        <v>-15.4</v>
       </c>
       <c r="D136" t="n">
-        <v>9667.9728</v>
+        <v>1781.1235</v>
       </c>
       <c r="E136" t="n">
-        <v>8.800000000000001</v>
+        <v>-3.1</v>
       </c>
       <c r="F136" t="n">
-        <v>53467.182</v>
+        <v>10252.881</v>
       </c>
       <c r="G136" t="n">
-        <v>10.9</v>
+        <v>-13.5</v>
+      </c>
+      <c r="H136" t="n">
+        <v>2601.4501</v>
+      </c>
+      <c r="I136" t="n">
+        <v>552.4345999999998</v>
+      </c>
+      <c r="J136" t="n">
+        <v>3153.8847</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2763.0382</v>
+        <v>11629.4731</v>
       </c>
       <c r="C137" t="n">
-        <v>-27.6</v>
+        <v>-12.6</v>
       </c>
       <c r="D137" t="n">
-        <v>602.7385</v>
+        <v>2380.9212</v>
       </c>
       <c r="E137" t="n">
-        <v>-8</v>
+        <v>0.8</v>
       </c>
       <c r="F137" t="n">
-        <v>3365.7767</v>
+        <v>14010.3943</v>
       </c>
       <c r="G137" t="n">
-        <v>-24.7</v>
+        <v>-10.6</v>
+      </c>
+      <c r="H137" t="n">
+        <v>3157.7156</v>
+      </c>
+      <c r="I137" t="n">
+        <v>599.7977000000003</v>
+      </c>
+      <c r="J137" t="n">
+        <v>3757.513300000001</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>5870.3074</v>
+        <v>16013.5236</v>
       </c>
       <c r="C138" t="n">
-        <v>-19.4</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>1228.6889</v>
+        <v>3309.265</v>
       </c>
       <c r="E138" t="n">
-        <v>-7</v>
+        <v>3.7</v>
       </c>
       <c r="F138" t="n">
-        <v>7098.9963</v>
+        <v>19322.7886</v>
       </c>
       <c r="G138" t="n">
-        <v>-17.5</v>
+        <v>-6.5</v>
+      </c>
+      <c r="H138" t="n">
+        <v>4384.050500000001</v>
+      </c>
+      <c r="I138" t="n">
+        <v>928.3437999999996</v>
+      </c>
+      <c r="J138" t="n">
+        <v>5312.3943</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>8471.7575</v>
+        <v>19811.3678</v>
       </c>
       <c r="C139" t="n">
-        <v>-15.4</v>
+        <v>-2.8</v>
       </c>
       <c r="D139" t="n">
-        <v>1781.1235</v>
+        <v>4055.5541</v>
       </c>
       <c r="E139" t="n">
-        <v>-3.1</v>
+        <v>7.6</v>
       </c>
       <c r="F139" t="n">
-        <v>10252.881</v>
+        <v>23866.9219</v>
       </c>
       <c r="G139" t="n">
-        <v>-13.5</v>
+        <v>-1.1</v>
+      </c>
+      <c r="H139" t="n">
+        <v>3797.8442</v>
+      </c>
+      <c r="I139" t="n">
+        <v>746.2891</v>
+      </c>
+      <c r="J139" t="n">
+        <v>4544.133300000001</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>11629.4731</v>
+        <v>23658.1577</v>
       </c>
       <c r="C140" t="n">
-        <v>-12.6</v>
+        <v>0.8</v>
       </c>
       <c r="D140" t="n">
-        <v>2380.9212</v>
+        <v>4725.5519</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8</v>
+        <v>10.3</v>
       </c>
       <c r="F140" t="n">
-        <v>14010.3943</v>
+        <v>28383.7096</v>
       </c>
       <c r="G140" t="n">
-        <v>-10.6</v>
+        <v>2.3</v>
+      </c>
+      <c r="H140" t="n">
+        <v>3846.7899</v>
+      </c>
+      <c r="I140" t="n">
+        <v>669.9978000000006</v>
+      </c>
+      <c r="J140" t="n">
+        <v>4516.787699999997</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>16013.5236</v>
+        <v>28208.8236</v>
       </c>
       <c r="C141" t="n">
-        <v>-8.300000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="D141" t="n">
-        <v>3309.265</v>
+        <v>5578.8731</v>
       </c>
       <c r="E141" t="n">
-        <v>3.7</v>
+        <v>10.1</v>
       </c>
       <c r="F141" t="n">
-        <v>19322.7886</v>
+        <v>33787.6967</v>
       </c>
       <c r="G141" t="n">
-        <v>-6.5</v>
+        <v>3.3</v>
+      </c>
+      <c r="H141" t="n">
+        <v>4550.6659</v>
+      </c>
+      <c r="I141" t="n">
+        <v>853.3211999999994</v>
+      </c>
+      <c r="J141" t="n">
+        <v>5403.987100000002</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>19811.3678</v>
+        <v>32346.8056</v>
       </c>
       <c r="C142" t="n">
-        <v>-2.8</v>
+        <v>5.3</v>
       </c>
       <c r="D142" t="n">
-        <v>4055.5541</v>
+        <v>6477.7035</v>
       </c>
       <c r="E142" t="n">
-        <v>7.6</v>
+        <v>13.5</v>
       </c>
       <c r="F142" t="n">
-        <v>23866.9219</v>
+        <v>38824.5091</v>
       </c>
       <c r="G142" t="n">
-        <v>-1.1</v>
+        <v>6.6</v>
+      </c>
+      <c r="H142" t="n">
+        <v>4137.982</v>
+      </c>
+      <c r="I142" t="n">
+        <v>898.8303999999998</v>
+      </c>
+      <c r="J142" t="n">
+        <v>5036.812400000003</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>23658.1577</v>
+        <v>37183.7553</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>4725.5519</v>
+        <v>7599.2927</v>
       </c>
       <c r="E143" t="n">
-        <v>10.3</v>
+        <v>16.1</v>
       </c>
       <c r="F143" t="n">
-        <v>28383.7096</v>
+        <v>44783.048</v>
       </c>
       <c r="G143" t="n">
-        <v>2.3</v>
+        <v>10.4</v>
+      </c>
+      <c r="H143" t="n">
+        <v>4836.949699999997</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1121.5892</v>
+      </c>
+      <c r="J143" t="n">
+        <v>5958.5389</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>28208.8236</v>
+        <v>43799.2092</v>
       </c>
       <c r="C144" t="n">
-        <v>2.1</v>
+        <v>11.4</v>
       </c>
       <c r="D144" t="n">
-        <v>5578.8731</v>
+        <v>9667.9728</v>
       </c>
       <c r="E144" t="n">
-        <v>10.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F144" t="n">
-        <v>33787.6967</v>
+        <v>53467.182</v>
       </c>
       <c r="G144" t="n">
-        <v>3.3</v>
+        <v>10.9</v>
+      </c>
+      <c r="H144" t="n">
+        <v>6615.4539</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2068.6801</v>
+      </c>
+      <c r="J144" t="n">
+        <v>8684.133999999998</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>42180.6998</v>
+        <v>5181.4197</v>
       </c>
       <c r="C145" t="n">
-        <v>30.4</v>
+        <v>87.5</v>
       </c>
       <c r="D145" t="n">
-        <v>9303.890100000001</v>
+        <v>1119.114</v>
       </c>
       <c r="E145" t="n">
-        <v>43.6</v>
+        <v>85.7</v>
       </c>
       <c r="F145" t="n">
-        <v>51484.5899</v>
+        <v>6300.5337</v>
       </c>
       <c r="G145" t="n">
-        <v>32.6</v>
+        <v>87.2</v>
+      </c>
+      <c r="H145" t="n">
+        <v>5181.4197</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1119.114</v>
+      </c>
+      <c r="J145" t="n">
+        <v>6300.5337</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>47999.5835</v>
+        <v>9785.117099999999</v>
       </c>
       <c r="C146" t="n">
-        <v>29.1</v>
+        <v>66.7</v>
       </c>
       <c r="D146" t="n">
-        <v>10689.7627</v>
+        <v>2209.7531</v>
       </c>
       <c r="E146" t="n">
-        <v>40.7</v>
+        <v>79.8</v>
       </c>
       <c r="F146" t="n">
-        <v>58689.3462</v>
+        <v>11994.8702</v>
       </c>
       <c r="G146" t="n">
-        <v>31.1</v>
+        <v>69</v>
+      </c>
+      <c r="H146" t="n">
+        <v>4603.697399999999</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1090.6391</v>
+      </c>
+      <c r="J146" t="n">
+        <v>5694.336499999999</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>54817.0864</v>
+        <v>13856.9784</v>
       </c>
       <c r="C147" t="n">
-        <v>25.2</v>
+        <v>63.6</v>
       </c>
       <c r="D147" t="n">
-        <v>12877.8503</v>
+        <v>3084.0864</v>
       </c>
       <c r="E147" t="n">
-        <v>33.2</v>
+        <v>73.2</v>
       </c>
       <c r="F147" t="n">
-        <v>67694.93670000001</v>
+        <v>16941.0648</v>
       </c>
       <c r="G147" t="n">
-        <v>26.6</v>
+        <v>65.2</v>
+      </c>
+      <c r="H147" t="n">
+        <v>4071.8613</v>
+      </c>
+      <c r="I147" t="n">
+        <v>874.3333000000002</v>
+      </c>
+      <c r="J147" t="n">
+        <v>4946.194600000001</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>5181.4197</v>
+        <v>18016.2483</v>
       </c>
       <c r="C148" t="n">
-        <v>87.5</v>
+        <v>54.9</v>
       </c>
       <c r="D148" t="n">
-        <v>1119.114</v>
+        <v>3955.0499</v>
       </c>
       <c r="E148" t="n">
-        <v>85.7</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F148" t="n">
-        <v>6300.5337</v>
+        <v>21971.2982</v>
       </c>
       <c r="G148" t="n">
-        <v>87.2</v>
+        <v>56.8</v>
+      </c>
+      <c r="H148" t="n">
+        <v>4159.269899999999</v>
+      </c>
+      <c r="I148" t="n">
+        <v>870.9634999999998</v>
+      </c>
+      <c r="J148" t="n">
+        <v>5030.233400000001</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>9785.117099999999</v>
+        <v>23034.1423</v>
       </c>
       <c r="C149" t="n">
-        <v>66.7</v>
+        <v>43.8</v>
       </c>
       <c r="D149" t="n">
-        <v>2209.7531</v>
+        <v>5180.913</v>
       </c>
       <c r="E149" t="n">
-        <v>79.8</v>
+        <v>56.6</v>
       </c>
       <c r="F149" t="n">
-        <v>11994.8702</v>
+        <v>28215.0553</v>
       </c>
       <c r="G149" t="n">
-        <v>69</v>
+        <v>46</v>
+      </c>
+      <c r="H149" t="n">
+        <v>5017.894</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1225.8631</v>
+      </c>
+      <c r="J149" t="n">
+        <v>6243.757099999999</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>13856.9784</v>
+        <v>27290.4519</v>
       </c>
       <c r="C150" t="n">
-        <v>63.6</v>
+        <v>37.8</v>
       </c>
       <c r="D150" t="n">
-        <v>3084.0864</v>
+        <v>6089.1081</v>
       </c>
       <c r="E150" t="n">
-        <v>73.2</v>
+        <v>50.1</v>
       </c>
       <c r="F150" t="n">
-        <v>16941.0648</v>
+        <v>33379.56</v>
       </c>
       <c r="G150" t="n">
-        <v>65.2</v>
+        <v>39.9</v>
+      </c>
+      <c r="H150" t="n">
+        <v>4256.309600000001</v>
+      </c>
+      <c r="I150" t="n">
+        <v>908.1951000000008</v>
+      </c>
+      <c r="J150" t="n">
+        <v>5164.504699999998</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>18016.2483</v>
+        <v>31516.0542</v>
       </c>
       <c r="C151" t="n">
-        <v>54.9</v>
+        <v>33.2</v>
       </c>
       <c r="D151" t="n">
-        <v>3955.0499</v>
+        <v>7009.6112</v>
       </c>
       <c r="E151" t="n">
-        <v>66.09999999999999</v>
+        <v>48.3</v>
       </c>
       <c r="F151" t="n">
-        <v>21971.2982</v>
+        <v>38525.6654</v>
       </c>
       <c r="G151" t="n">
-        <v>56.8</v>
+        <v>35.7</v>
+      </c>
+      <c r="H151" t="n">
+        <v>4225.602299999999</v>
+      </c>
+      <c r="I151" t="n">
+        <v>920.5030999999999</v>
+      </c>
+      <c r="J151" t="n">
+        <v>5146.1054</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>23034.1423</v>
+        <v>37175.999</v>
       </c>
       <c r="C152" t="n">
-        <v>43.8</v>
+        <v>31.8</v>
       </c>
       <c r="D152" t="n">
-        <v>5180.913</v>
+        <v>8260.9982</v>
       </c>
       <c r="E152" t="n">
-        <v>56.6</v>
+        <v>48.1</v>
       </c>
       <c r="F152" t="n">
-        <v>28215.0553</v>
+        <v>45436.9972</v>
       </c>
       <c r="G152" t="n">
-        <v>46</v>
+        <v>34.5</v>
+      </c>
+      <c r="H152" t="n">
+        <v>5659.944800000005</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1251.387</v>
+      </c>
+      <c r="J152" t="n">
+        <v>6911.3318</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>27290.4519</v>
+        <v>42180.6998</v>
       </c>
       <c r="C153" t="n">
-        <v>37.8</v>
+        <v>30.4</v>
       </c>
       <c r="D153" t="n">
-        <v>6089.1081</v>
+        <v>9303.890100000001</v>
       </c>
       <c r="E153" t="n">
-        <v>50.1</v>
+        <v>43.6</v>
       </c>
       <c r="F153" t="n">
-        <v>33379.56</v>
+        <v>51484.5899</v>
       </c>
       <c r="G153" t="n">
-        <v>39.9</v>
+        <v>32.6</v>
+      </c>
+      <c r="H153" t="n">
+        <v>5004.700799999999</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1042.891900000001</v>
+      </c>
+      <c r="J153" t="n">
+        <v>6047.592700000001</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>31516.0542</v>
+        <v>47999.5835</v>
       </c>
       <c r="C154" t="n">
-        <v>33.2</v>
+        <v>29.1</v>
       </c>
       <c r="D154" t="n">
-        <v>7009.6112</v>
+        <v>10689.7627</v>
       </c>
       <c r="E154" t="n">
-        <v>48.3</v>
+        <v>40.7</v>
       </c>
       <c r="F154" t="n">
-        <v>38525.6654</v>
+        <v>58689.3462</v>
       </c>
       <c r="G154" t="n">
-        <v>35.7</v>
+        <v>31.1</v>
+      </c>
+      <c r="H154" t="n">
+        <v>5818.883699999998</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1385.872599999999</v>
+      </c>
+      <c r="J154" t="n">
+        <v>7204.756300000001</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>37175.999</v>
+        <v>54817.0864</v>
       </c>
       <c r="C155" t="n">
-        <v>31.8</v>
+        <v>25.2</v>
       </c>
       <c r="D155" t="n">
-        <v>8260.9982</v>
+        <v>12877.8503</v>
       </c>
       <c r="E155" t="n">
-        <v>48.1</v>
+        <v>33.2</v>
       </c>
       <c r="F155" t="n">
-        <v>45436.9972</v>
+        <v>67694.93670000001</v>
       </c>
       <c r="G155" t="n">
-        <v>34.5</v>
+        <v>26.6</v>
+      </c>
+      <c r="H155" t="n">
+        <v>6817.502899999999</v>
+      </c>
+      <c r="I155" t="n">
+        <v>2188.087600000001</v>
+      </c>
+      <c r="J155" t="n">
+        <v>9005.590500000006</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>37728.2155</v>
+        <v>4867.1074</v>
       </c>
       <c r="C156" t="n">
-        <v>-10.6</v>
+        <v>-6.1</v>
       </c>
       <c r="D156" t="n">
-        <v>8646.7359</v>
+        <v>1117.5645</v>
       </c>
       <c r="E156" t="n">
-        <v>-7.1</v>
+        <v>-0.1</v>
       </c>
       <c r="F156" t="n">
-        <v>46374.9514</v>
+        <v>5984.6719</v>
       </c>
       <c r="G156" t="n">
-        <v>-9.9</v>
+        <v>-5</v>
+      </c>
+      <c r="H156" t="n">
+        <v>4867.1074</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1117.5645</v>
+      </c>
+      <c r="J156" t="n">
+        <v>5984.6719</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>43121.7643</v>
+        <v>8989.322</v>
       </c>
       <c r="C157" t="n">
-        <v>-10.2</v>
+        <v>-8.1</v>
       </c>
       <c r="D157" t="n">
-        <v>9890.1595</v>
+        <v>2085.6643</v>
       </c>
       <c r="E157" t="n">
-        <v>-7.5</v>
+        <v>-5.6</v>
       </c>
       <c r="F157" t="n">
-        <v>53011.9238</v>
+        <v>11074.9863</v>
       </c>
       <c r="G157" t="n">
-        <v>-9.699999999999999</v>
+        <v>-7.7</v>
+      </c>
+      <c r="H157" t="n">
+        <v>4122.2146</v>
+      </c>
+      <c r="I157" t="n">
+        <v>968.0998</v>
+      </c>
+      <c r="J157" t="n">
+        <v>5090.3144</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>50300.9358</v>
+        <v>12430.831</v>
       </c>
       <c r="C158" t="n">
-        <v>-8.199999999999999</v>
+        <v>-10.3</v>
       </c>
       <c r="D158" t="n">
-        <v>12094.6474</v>
+        <v>2827.8707</v>
       </c>
       <c r="E158" t="n">
-        <v>-6.1</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="F158" t="n">
-        <v>62395.5832</v>
+        <v>15258.7017</v>
       </c>
       <c r="G158" t="n">
-        <v>-7.8</v>
+        <v>-9.9</v>
+      </c>
+      <c r="H158" t="n">
+        <v>3441.509</v>
+      </c>
+      <c r="I158" t="n">
+        <v>742.2064</v>
+      </c>
+      <c r="J158" t="n">
+        <v>4183.715399999999</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>4867.1074</v>
+        <v>16133.4092</v>
       </c>
       <c r="C159" t="n">
-        <v>-6.1</v>
+        <v>-10.5</v>
       </c>
       <c r="D159" t="n">
-        <v>1117.5645</v>
+        <v>3586.789</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.1</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="F159" t="n">
-        <v>5984.6719</v>
+        <v>19720.1982</v>
       </c>
       <c r="G159" t="n">
-        <v>-5</v>
+        <v>-10.2</v>
+      </c>
+      <c r="H159" t="n">
+        <v>3702.5782</v>
+      </c>
+      <c r="I159" t="n">
+        <v>758.9183000000003</v>
+      </c>
+      <c r="J159" t="n">
+        <v>4461.496499999999</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>8989.322</v>
+        <v>20825.1738</v>
       </c>
       <c r="C160" t="n">
-        <v>-8.1</v>
+        <v>-9.6</v>
       </c>
       <c r="D160" t="n">
-        <v>2085.6643</v>
+        <v>4807.2866</v>
       </c>
       <c r="E160" t="n">
-        <v>-5.6</v>
+        <v>-7.2</v>
       </c>
       <c r="F160" t="n">
-        <v>11074.9863</v>
+        <v>25632.4604</v>
       </c>
       <c r="G160" t="n">
-        <v>-7.7</v>
+        <v>-9.199999999999999</v>
+      </c>
+      <c r="H160" t="n">
+        <v>4691.7646</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1220.4976</v>
+      </c>
+      <c r="J160" t="n">
+        <v>5912.262200000001</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>12430.831</v>
+        <v>24245.1266</v>
       </c>
       <c r="C161" t="n">
-        <v>-10.3</v>
+        <v>-11.2</v>
       </c>
       <c r="D161" t="n">
-        <v>2827.8707</v>
+        <v>5628.5864</v>
       </c>
       <c r="E161" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.6</v>
       </c>
       <c r="F161" t="n">
-        <v>15258.7017</v>
+        <v>29873.713</v>
       </c>
       <c r="G161" t="n">
-        <v>-9.9</v>
+        <v>-10.5</v>
+      </c>
+      <c r="H161" t="n">
+        <v>3419.952799999999</v>
+      </c>
+      <c r="I161" t="n">
+        <v>821.2997999999998</v>
+      </c>
+      <c r="J161" t="n">
+        <v>4241.2526</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>16133.4092</v>
+        <v>27882.6709</v>
       </c>
       <c r="C162" t="n">
-        <v>-10.5</v>
+        <v>-11.5</v>
       </c>
       <c r="D162" t="n">
-        <v>3586.789</v>
+        <v>6431.5232</v>
       </c>
       <c r="E162" t="n">
-        <v>-9.300000000000001</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="F162" t="n">
-        <v>19720.1982</v>
+        <v>34314.1941</v>
       </c>
       <c r="G162" t="n">
-        <v>-10.2</v>
+        <v>-10.9</v>
+      </c>
+      <c r="H162" t="n">
+        <v>3637.544300000001</v>
+      </c>
+      <c r="I162" t="n">
+        <v>802.9367999999995</v>
+      </c>
+      <c r="J162" t="n">
+        <v>4440.481100000001</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>20825.1738</v>
+        <v>32921.3697</v>
       </c>
       <c r="C163" t="n">
-        <v>-9.6</v>
+        <v>-11.4</v>
       </c>
       <c r="D163" t="n">
-        <v>4807.2866</v>
+        <v>7594.7403</v>
       </c>
       <c r="E163" t="n">
-        <v>-7.2</v>
+        <v>-8.1</v>
       </c>
       <c r="F163" t="n">
-        <v>25632.4604</v>
+        <v>40516.11</v>
       </c>
       <c r="G163" t="n">
-        <v>-9.199999999999999</v>
+        <v>-10.8</v>
+      </c>
+      <c r="H163" t="n">
+        <v>5038.698800000002</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1163.217100000001</v>
+      </c>
+      <c r="J163" t="n">
+        <v>6201.9159</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>24245.1266</v>
+        <v>37728.2155</v>
       </c>
       <c r="C164" t="n">
-        <v>-11.2</v>
+        <v>-10.6</v>
       </c>
       <c r="D164" t="n">
-        <v>5628.5864</v>
+        <v>8646.7359</v>
       </c>
       <c r="E164" t="n">
-        <v>-7.6</v>
+        <v>-7.1</v>
       </c>
       <c r="F164" t="n">
-        <v>29873.713</v>
+        <v>46374.9514</v>
       </c>
       <c r="G164" t="n">
-        <v>-10.5</v>
+        <v>-9.9</v>
+      </c>
+      <c r="H164" t="n">
+        <v>4806.845799999996</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1051.995599999999</v>
+      </c>
+      <c r="J164" t="n">
+        <v>5858.841399999998</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>27882.6709</v>
+        <v>43121.7643</v>
       </c>
       <c r="C165" t="n">
-        <v>-11.5</v>
+        <v>-10.2</v>
       </c>
       <c r="D165" t="n">
-        <v>6431.5232</v>
+        <v>9890.1595</v>
       </c>
       <c r="E165" t="n">
-        <v>-8.199999999999999</v>
+        <v>-7.5</v>
       </c>
       <c r="F165" t="n">
-        <v>34314.1941</v>
+        <v>53011.9238</v>
       </c>
       <c r="G165" t="n">
-        <v>-10.9</v>
+        <v>-9.699999999999999</v>
+      </c>
+      <c r="H165" t="n">
+        <v>5393.548800000004</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1243.4236</v>
+      </c>
+      <c r="J165" t="n">
+        <v>6636.972399999999</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>32921.3697</v>
+        <v>50300.9358</v>
       </c>
       <c r="C166" t="n">
-        <v>-11.4</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="D166" t="n">
-        <v>7594.7403</v>
+        <v>12094.6474</v>
       </c>
       <c r="E166" t="n">
-        <v>-8.1</v>
+        <v>-6.1</v>
       </c>
       <c r="F166" t="n">
-        <v>40516.11</v>
+        <v>62395.5832</v>
       </c>
       <c r="G166" t="n">
-        <v>-10.8</v>
+        <v>-7.8</v>
+      </c>
+      <c r="H166" t="n">
+        <v>7179.171499999997</v>
+      </c>
+      <c r="I166" t="n">
+        <v>2204.4879</v>
+      </c>
+      <c r="J166" t="n">
+        <v>9383.659400000004</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>44098.6031</v>
+        <v>3960.1179</v>
       </c>
       <c r="C167" t="n">
-        <v>16.9</v>
+        <v>-18.6</v>
       </c>
       <c r="D167" t="n">
-        <v>10604.1038</v>
+        <v>1022.7971</v>
       </c>
       <c r="E167" t="n">
-        <v>22.6</v>
+        <v>-8.5</v>
       </c>
       <c r="F167" t="n">
-        <v>54702.7069</v>
+        <v>4982.915</v>
       </c>
       <c r="G167" t="n">
-        <v>18</v>
+        <v>-16.7</v>
+      </c>
+      <c r="H167" t="n">
+        <v>3960.1179</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1022.7971</v>
+      </c>
+      <c r="J167" t="n">
+        <v>4982.915</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>50343.5737</v>
+        <v>8007.6174</v>
       </c>
       <c r="C168" t="n">
-        <v>16.7</v>
+        <v>-10.9</v>
       </c>
       <c r="D168" t="n">
-        <v>12188.7686</v>
+        <v>2054.5476</v>
       </c>
       <c r="E168" t="n">
-        <v>23.2</v>
+        <v>-1.5</v>
       </c>
       <c r="F168" t="n">
-        <v>62532.3423</v>
+        <v>10062.165</v>
       </c>
       <c r="G168" t="n">
-        <v>18</v>
+        <v>-9.1</v>
+      </c>
+      <c r="H168" t="n">
+        <v>4047.4995</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1031.7505</v>
+      </c>
+      <c r="J168" t="n">
+        <v>5079.250000000001</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>58075.5724</v>
+        <v>11967.9433</v>
       </c>
       <c r="C169" t="n">
-        <v>15.4</v>
+        <v>-3.7</v>
       </c>
       <c r="D169" t="n">
-        <v>14677.4242</v>
+        <v>2947.8083</v>
       </c>
       <c r="E169" t="n">
-        <v>21.4</v>
+        <v>4.2</v>
       </c>
       <c r="F169" t="n">
-        <v>72752.9966</v>
+        <v>14915.7516</v>
       </c>
       <c r="G169" t="n">
-        <v>16.6</v>
+        <v>-2.2</v>
+      </c>
+      <c r="H169" t="n">
+        <v>3960.325900000001</v>
+      </c>
+      <c r="I169" t="n">
+        <v>893.2607000000003</v>
+      </c>
+      <c r="J169" t="n">
+        <v>4853.586599999999</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>3960.1179</v>
+        <v>16660.9888</v>
       </c>
       <c r="C170" t="n">
-        <v>-18.6</v>
+        <v>3.3</v>
       </c>
       <c r="D170" t="n">
-        <v>1022.7971</v>
+        <v>4070.5331</v>
       </c>
       <c r="E170" t="n">
-        <v>-8.5</v>
+        <v>13.5</v>
       </c>
       <c r="F170" t="n">
-        <v>4982.915</v>
+        <v>20731.5219</v>
       </c>
       <c r="G170" t="n">
-        <v>-16.7</v>
+        <v>5.1</v>
+      </c>
+      <c r="H170" t="n">
+        <v>4693.045499999998</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1122.7248</v>
+      </c>
+      <c r="J170" t="n">
+        <v>5815.7703</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>8007.6174</v>
+        <v>23213.7772</v>
       </c>
       <c r="C171" t="n">
-        <v>-10.9</v>
+        <v>11.5</v>
       </c>
       <c r="D171" t="n">
-        <v>2054.5476</v>
+        <v>5727.3468</v>
       </c>
       <c r="E171" t="n">
-        <v>-1.5</v>
+        <v>19.1</v>
       </c>
       <c r="F171" t="n">
-        <v>10062.165</v>
+        <v>28941.124</v>
       </c>
       <c r="G171" t="n">
-        <v>-9.1</v>
+        <v>12.9</v>
+      </c>
+      <c r="H171" t="n">
+        <v>6552.788400000001</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1656.8137</v>
+      </c>
+      <c r="J171" t="n">
+        <v>8209.6021</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>11967.9433</v>
+        <v>28102.4942</v>
       </c>
       <c r="C172" t="n">
-        <v>-3.7</v>
+        <v>15.9</v>
       </c>
       <c r="D172" t="n">
-        <v>2947.8083</v>
+        <v>6781.9523</v>
       </c>
       <c r="E172" t="n">
-        <v>4.2</v>
+        <v>20.5</v>
       </c>
       <c r="F172" t="n">
-        <v>14915.7516</v>
+        <v>34884.4465</v>
       </c>
       <c r="G172" t="n">
-        <v>-2.2</v>
+        <v>16.8</v>
+      </c>
+      <c r="H172" t="n">
+        <v>4888.717000000001</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1054.6055</v>
+      </c>
+      <c r="J172" t="n">
+        <v>5943.322499999998</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>16660.9888</v>
+        <v>32819.4481</v>
       </c>
       <c r="C173" t="n">
-        <v>3.3</v>
+        <v>17.7</v>
       </c>
       <c r="D173" t="n">
-        <v>4070.5331</v>
+        <v>7904.617</v>
       </c>
       <c r="E173" t="n">
-        <v>13.5</v>
+        <v>22.9</v>
       </c>
       <c r="F173" t="n">
-        <v>20731.5219</v>
+        <v>40724.0651</v>
       </c>
       <c r="G173" t="n">
-        <v>5.1</v>
+        <v>18.7</v>
+      </c>
+      <c r="H173" t="n">
+        <v>4716.9539</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1122.6647</v>
+      </c>
+      <c r="J173" t="n">
+        <v>5839.618600000002</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>23213.7772</v>
+        <v>38541.8468</v>
       </c>
       <c r="C174" t="n">
-        <v>11.5</v>
+        <v>17.1</v>
       </c>
       <c r="D174" t="n">
-        <v>5727.3468</v>
+        <v>9356.2392</v>
       </c>
       <c r="E174" t="n">
-        <v>19.1</v>
+        <v>23.2</v>
       </c>
       <c r="F174" t="n">
-        <v>28941.124</v>
+        <v>47898</v>
       </c>
       <c r="G174" t="n">
-        <v>12.9</v>
+        <v>18.2</v>
+      </c>
+      <c r="H174" t="n">
+        <v>5722.398699999998</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1451.6222</v>
+      </c>
+      <c r="J174" t="n">
+        <v>7173.9349</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>28102.4942</v>
+        <v>44098.6031</v>
       </c>
       <c r="C175" t="n">
-        <v>15.9</v>
+        <v>16.9</v>
       </c>
       <c r="D175" t="n">
-        <v>6781.9523</v>
+        <v>10604.1038</v>
       </c>
       <c r="E175" t="n">
-        <v>20.5</v>
+        <v>22.6</v>
       </c>
       <c r="F175" t="n">
-        <v>34884.4465</v>
+        <v>54702.7069</v>
       </c>
       <c r="G175" t="n">
-        <v>16.8</v>
+        <v>18</v>
+      </c>
+      <c r="H175" t="n">
+        <v>5556.756300000001</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1247.864600000001</v>
+      </c>
+      <c r="J175" t="n">
+        <v>6804.706899999997</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>32819.4481</v>
+        <v>50343.5737</v>
       </c>
       <c r="C176" t="n">
-        <v>17.7</v>
+        <v>16.7</v>
       </c>
       <c r="D176" t="n">
-        <v>7904.617</v>
+        <v>12188.7686</v>
       </c>
       <c r="E176" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="F176" t="n">
-        <v>40724.0651</v>
+        <v>62532.3423</v>
       </c>
       <c r="G176" t="n">
-        <v>18.7</v>
+        <v>18</v>
+      </c>
+      <c r="H176" t="n">
+        <v>6244.970600000001</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1584.664799999999</v>
+      </c>
+      <c r="J176" t="n">
+        <v>7829.635399999999</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>38541.8468</v>
+        <v>58075.5724</v>
       </c>
       <c r="C177" t="n">
-        <v>17.1</v>
+        <v>15.4</v>
       </c>
       <c r="D177" t="n">
-        <v>9356.2392</v>
+        <v>14677.4242</v>
       </c>
       <c r="E177" t="n">
-        <v>23.2</v>
+        <v>21.4</v>
       </c>
       <c r="F177" t="n">
-        <v>47898</v>
+        <v>72752.9966</v>
       </c>
       <c r="G177" t="n">
-        <v>18.2</v>
+        <v>16.6</v>
+      </c>
+      <c r="H177" t="n">
+        <v>7731.998699999996</v>
+      </c>
+      <c r="I177" t="n">
+        <v>2488.6556</v>
+      </c>
+      <c r="J177" t="n">
+        <v>10220.6543</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>63565.6004</v>
+        <v>5901.56</v>
       </c>
       <c r="C178" t="n">
-        <v>44.1</v>
+        <v>49</v>
       </c>
       <c r="D178" t="n">
-        <v>14457.5509</v>
+        <v>1533.7206</v>
       </c>
       <c r="E178" t="n">
-        <v>36.3</v>
+        <v>50</v>
       </c>
       <c r="F178" t="n">
-        <v>78023.1513</v>
+        <v>7435.2806</v>
       </c>
       <c r="G178" t="n">
-        <v>42.6</v>
+        <v>49.2</v>
+      </c>
+      <c r="H178" t="n">
+        <v>5901.56</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1533.7206</v>
+      </c>
+      <c r="J178" t="n">
+        <v>7435.2806</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>70692.8747</v>
+        <v>12853.9646</v>
       </c>
       <c r="C179" t="n">
-        <v>40.4</v>
+        <v>60.5</v>
       </c>
       <c r="D179" t="n">
-        <v>16428.0022</v>
+        <v>3279.038</v>
       </c>
       <c r="E179" t="n">
-        <v>34.8</v>
+        <v>59.6</v>
       </c>
       <c r="F179" t="n">
-        <v>87120.8769</v>
+        <v>16133.0026</v>
       </c>
       <c r="G179" t="n">
-        <v>39.3</v>
+        <v>60.3</v>
+      </c>
+      <c r="H179" t="n">
+        <v>6952.404599999999</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1745.3174</v>
+      </c>
+      <c r="J179" t="n">
+        <v>8697.722</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>79825.09849999999</v>
+        <v>19306.4908</v>
       </c>
       <c r="C180" t="n">
-        <v>37.4</v>
+        <v>61.3</v>
       </c>
       <c r="D180" t="n">
-        <v>19239.0749</v>
+        <v>4763.8309</v>
       </c>
       <c r="E180" t="n">
-        <v>31</v>
+        <v>61.6</v>
       </c>
       <c r="F180" t="n">
-        <v>99064</v>
+        <v>24070.3217</v>
       </c>
       <c r="G180" t="n">
-        <v>36.1</v>
+        <v>61.4</v>
+      </c>
+      <c r="H180" t="n">
+        <v>6452.5262</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1484.7929</v>
+      </c>
+      <c r="J180" t="n">
+        <v>7937.319100000001</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>5901.56</v>
+        <v>25587.427</v>
       </c>
       <c r="C181" t="n">
-        <v>49</v>
+        <v>53.6</v>
       </c>
       <c r="D181" t="n">
-        <v>1533.7206</v>
+        <v>6212.6538</v>
       </c>
       <c r="E181" t="n">
-        <v>50</v>
+        <v>52.6</v>
       </c>
       <c r="F181" t="n">
-        <v>7435.2806</v>
+        <v>31800.0808</v>
       </c>
       <c r="G181" t="n">
-        <v>49.2</v>
+        <v>53.4</v>
+      </c>
+      <c r="H181" t="n">
+        <v>6280.9362</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1448.8229</v>
+      </c>
+      <c r="J181" t="n">
+        <v>7729.759099999999</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>12853.9646</v>
+        <v>33779.0885</v>
       </c>
       <c r="C182" t="n">
-        <v>60.5</v>
+        <v>45.5</v>
       </c>
       <c r="D182" t="n">
-        <v>3279.038</v>
+        <v>8022.8308</v>
       </c>
       <c r="E182" t="n">
-        <v>59.6</v>
+        <v>40.1</v>
       </c>
       <c r="F182" t="n">
-        <v>16133.0026</v>
+        <v>41801.9193</v>
       </c>
       <c r="G182" t="n">
-        <v>60.3</v>
+        <v>44.4</v>
+      </c>
+      <c r="H182" t="n">
+        <v>8191.661499999998</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1810.177</v>
+      </c>
+      <c r="J182" t="n">
+        <v>10001.8385</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>19306.4908</v>
+        <v>39898.1552</v>
       </c>
       <c r="C183" t="n">
-        <v>61.3</v>
+        <v>42</v>
       </c>
       <c r="D183" t="n">
-        <v>4763.8309</v>
+        <v>9374.499</v>
       </c>
       <c r="E183" t="n">
-        <v>61.6</v>
+        <v>38.2</v>
       </c>
       <c r="F183" t="n">
-        <v>24070.3217</v>
+        <v>49272.6542</v>
       </c>
       <c r="G183" t="n">
-        <v>61.4</v>
+        <v>41.2</v>
+      </c>
+      <c r="H183" t="n">
+        <v>6119.066700000003</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1351.6682</v>
+      </c>
+      <c r="J183" t="n">
+        <v>7470.734899999996</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>25587.427</v>
+        <v>46286.7307</v>
       </c>
       <c r="C184" t="n">
-        <v>53.6</v>
+        <v>41</v>
       </c>
       <c r="D184" t="n">
-        <v>6212.6538</v>
+        <v>10756.4376</v>
       </c>
       <c r="E184" t="n">
-        <v>52.6</v>
+        <v>36.1</v>
       </c>
       <c r="F184" t="n">
-        <v>31800.0808</v>
+        <v>57043.1683</v>
       </c>
       <c r="G184" t="n">
-        <v>53.4</v>
+        <v>40.1</v>
+      </c>
+      <c r="H184" t="n">
+        <v>6388.575499999999</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1381.938599999999</v>
+      </c>
+      <c r="J184" t="n">
+        <v>7770.5141</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>33779.0885</v>
+        <v>55851.5686</v>
       </c>
       <c r="C185" t="n">
-        <v>45.5</v>
+        <v>44.9</v>
       </c>
       <c r="D185" t="n">
-        <v>8022.8308</v>
+        <v>12759.1446</v>
       </c>
       <c r="E185" t="n">
-        <v>40.1</v>
+        <v>36.4</v>
       </c>
       <c r="F185" t="n">
-        <v>41801.9193</v>
+        <v>68610.7132</v>
       </c>
       <c r="G185" t="n">
-        <v>44.4</v>
+        <v>43.2</v>
+      </c>
+      <c r="H185" t="n">
+        <v>9564.837899999999</v>
+      </c>
+      <c r="I185" t="n">
+        <v>2002.707</v>
+      </c>
+      <c r="J185" t="n">
+        <v>11567.5449</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>39898.1552</v>
+        <v>63565.6004</v>
       </c>
       <c r="C186" t="n">
-        <v>42</v>
+        <v>44.1</v>
       </c>
       <c r="D186" t="n">
-        <v>9374.499</v>
+        <v>14457.5509</v>
       </c>
       <c r="E186" t="n">
-        <v>38.2</v>
+        <v>36.3</v>
       </c>
       <c r="F186" t="n">
-        <v>49272.6542</v>
+        <v>78023.1513</v>
       </c>
       <c r="G186" t="n">
-        <v>41.2</v>
+        <v>42.6</v>
+      </c>
+      <c r="H186" t="n">
+        <v>7714.031800000004</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1698.406300000001</v>
+      </c>
+      <c r="J186" t="n">
+        <v>9412.438099999999</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>46286.7307</v>
+        <v>70692.8747</v>
       </c>
       <c r="C187" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="D187" t="n">
-        <v>10756.4376</v>
+        <v>16428.0022</v>
       </c>
       <c r="E187" t="n">
-        <v>36.1</v>
+        <v>34.8</v>
       </c>
       <c r="F187" t="n">
-        <v>57043.1683</v>
+        <v>87120.8769</v>
       </c>
       <c r="G187" t="n">
-        <v>40.1</v>
+        <v>39.3</v>
+      </c>
+      <c r="H187" t="n">
+        <v>7127.274299999997</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1970.451299999999</v>
+      </c>
+      <c r="J187" t="n">
+        <v>9097.725600000005</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>55851.5686</v>
+        <v>79825.09849999999</v>
       </c>
       <c r="C188" t="n">
-        <v>44.9</v>
+        <v>37.4</v>
       </c>
       <c r="D188" t="n">
-        <v>12759.1446</v>
+        <v>19239.0749</v>
       </c>
       <c r="E188" t="n">
-        <v>36.4</v>
+        <v>31</v>
       </c>
       <c r="F188" t="n">
-        <v>68610.7132</v>
+        <v>99064</v>
       </c>
       <c r="G188" t="n">
-        <v>43.2</v>
+        <v>36.1</v>
+      </c>
+      <c r="H188" t="n">
+        <v>9132.223799999992</v>
+      </c>
+      <c r="I188" t="n">
+        <v>2811.072700000001</v>
+      </c>
+      <c r="J188" t="n">
+        <v>11943.1231</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>70537.0151</v>
+        <v>7363.6701</v>
       </c>
       <c r="C189" t="n">
-        <v>11</v>
+        <v>24.8</v>
       </c>
       <c r="D189" t="n">
-        <v>14995.3057</v>
+        <v>1757.2036</v>
       </c>
       <c r="E189" t="n">
-        <v>3.7</v>
+        <v>14.6</v>
       </c>
       <c r="F189" t="n">
-        <v>85532.3208</v>
+        <v>9120.8737</v>
       </c>
       <c r="G189" t="n">
-        <v>9.6</v>
+        <v>22.7</v>
+      </c>
+      <c r="H189" t="n">
+        <v>7363.6701</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1757.2036</v>
+      </c>
+      <c r="J189" t="n">
+        <v>9120.8737</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>79136.6388</v>
+        <v>15748.7954</v>
       </c>
       <c r="C190" t="n">
-        <v>11.9</v>
+        <v>22.5</v>
       </c>
       <c r="D190" t="n">
-        <v>16625.4407</v>
+        <v>3650.1903</v>
       </c>
       <c r="E190" t="n">
-        <v>1.2</v>
+        <v>11.3</v>
       </c>
       <c r="F190" t="n">
-        <v>95762.07950000001</v>
+        <v>19398.9857</v>
       </c>
       <c r="G190" t="n">
-        <v>9.9</v>
+        <v>20.2</v>
+      </c>
+      <c r="H190" t="n">
+        <v>8385.1253</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1892.9867</v>
+      </c>
+      <c r="J190" t="n">
+        <v>10278.112</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>91151.2608</v>
+        <v>22773.8578</v>
       </c>
       <c r="C191" t="n">
-        <v>14.2</v>
+        <v>18</v>
       </c>
       <c r="D191" t="n">
-        <v>19088.2467</v>
+        <v>5176.9839</v>
       </c>
       <c r="E191" t="n">
-        <v>-0.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F191" t="n">
-        <v>110239.5075</v>
+        <v>27950.8417</v>
       </c>
       <c r="G191" t="n">
-        <v>11.3</v>
+        <v>16.1</v>
+      </c>
+      <c r="H191" t="n">
+        <v>7025.062400000001</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1526.7936</v>
+      </c>
+      <c r="J191" t="n">
+        <v>8551.856</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>7363.6701</v>
+        <v>29907.3572</v>
       </c>
       <c r="C192" t="n">
-        <v>24.8</v>
+        <v>16.9</v>
       </c>
       <c r="D192" t="n">
-        <v>1757.2036</v>
+        <v>6748.4011</v>
       </c>
       <c r="E192" t="n">
-        <v>14.6</v>
+        <v>8.6</v>
       </c>
       <c r="F192" t="n">
-        <v>9120.8737</v>
+        <v>36655.7583</v>
       </c>
       <c r="G192" t="n">
-        <v>22.7</v>
+        <v>15.3</v>
+      </c>
+      <c r="H192" t="n">
+        <v>7133.499399999997</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1571.4172</v>
+      </c>
+      <c r="J192" t="n">
+        <v>8704.9166</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>15748.7954</v>
+        <v>40274.197</v>
       </c>
       <c r="C193" t="n">
-        <v>22.5</v>
+        <v>19.2</v>
       </c>
       <c r="D193" t="n">
-        <v>3650.1903</v>
+        <v>9023.8521</v>
       </c>
       <c r="E193" t="n">
-        <v>11.3</v>
+        <v>12.5</v>
       </c>
       <c r="F193" t="n">
-        <v>19398.9857</v>
+        <v>49298.0491</v>
       </c>
       <c r="G193" t="n">
-        <v>20.2</v>
+        <v>17.9</v>
+      </c>
+      <c r="H193" t="n">
+        <v>10366.8398</v>
+      </c>
+      <c r="I193" t="n">
+        <v>2275.451</v>
+      </c>
+      <c r="J193" t="n">
+        <v>12642.2908</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>22773.8578</v>
+        <v>46742.0965</v>
       </c>
       <c r="C194" t="n">
-        <v>18</v>
+        <v>17.2</v>
       </c>
       <c r="D194" t="n">
-        <v>5176.9839</v>
+        <v>10345.3973</v>
       </c>
       <c r="E194" t="n">
-        <v>8.699999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="F194" t="n">
-        <v>27950.8417</v>
+        <v>57087.4938</v>
       </c>
       <c r="G194" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
+      </c>
+      <c r="H194" t="n">
+        <v>6467.8995</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1321.5452</v>
+      </c>
+      <c r="J194" t="n">
+        <v>7789.4447</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>29907.3572</v>
+        <v>53447.7946</v>
       </c>
       <c r="C195" t="n">
-        <v>16.9</v>
+        <v>15.5</v>
       </c>
       <c r="D195" t="n">
-        <v>6748.4011</v>
+        <v>11707.9328</v>
       </c>
       <c r="E195" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F195" t="n">
-        <v>36655.7583</v>
+        <v>65155.7274</v>
       </c>
       <c r="G195" t="n">
-        <v>15.3</v>
+        <v>14.2</v>
+      </c>
+      <c r="H195" t="n">
+        <v>6705.698100000001</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1362.5355</v>
+      </c>
+      <c r="J195" t="n">
+        <v>8068.233600000007</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>40274.197</v>
+        <v>62873.2171</v>
       </c>
       <c r="C196" t="n">
-        <v>19.2</v>
+        <v>12.6</v>
       </c>
       <c r="D196" t="n">
-        <v>9023.8521</v>
+        <v>13569.0479</v>
       </c>
       <c r="E196" t="n">
-        <v>12.5</v>
+        <v>6.3</v>
       </c>
       <c r="F196" t="n">
-        <v>49298.0491</v>
+        <v>76442.265</v>
       </c>
       <c r="G196" t="n">
-        <v>17.9</v>
+        <v>11.4</v>
+      </c>
+      <c r="H196" t="n">
+        <v>9425.422500000001</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1861.115099999999</v>
+      </c>
+      <c r="J196" t="n">
+        <v>11286.5376</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>46742.0965</v>
+        <v>70537.0151</v>
       </c>
       <c r="C197" t="n">
-        <v>17.2</v>
+        <v>11</v>
       </c>
       <c r="D197" t="n">
-        <v>10345.3973</v>
+        <v>14995.3057</v>
       </c>
       <c r="E197" t="n">
-        <v>10.4</v>
+        <v>3.7</v>
       </c>
       <c r="F197" t="n">
-        <v>57087.4938</v>
+        <v>85532.3208</v>
       </c>
       <c r="G197" t="n">
-        <v>15.9</v>
+        <v>9.6</v>
+      </c>
+      <c r="H197" t="n">
+        <v>7663.798000000003</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1426.257800000001</v>
+      </c>
+      <c r="J197" t="n">
+        <v>9090.055800000002</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>53447.7946</v>
+        <v>79136.6388</v>
       </c>
       <c r="C198" t="n">
-        <v>15.5</v>
+        <v>11.9</v>
       </c>
       <c r="D198" t="n">
-        <v>11707.9328</v>
+        <v>16625.4407</v>
       </c>
       <c r="E198" t="n">
-        <v>8.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="F198" t="n">
-        <v>65155.7274</v>
+        <v>95762.07950000001</v>
       </c>
       <c r="G198" t="n">
-        <v>14.2</v>
+        <v>9.9</v>
+      </c>
+      <c r="H198" t="n">
+        <v>8599.623699999996</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1630.134999999998</v>
+      </c>
+      <c r="J198" t="n">
+        <v>10229.75870000001</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>62873.2171</v>
+        <v>91151.2608</v>
       </c>
       <c r="C199" t="n">
-        <v>12.6</v>
+        <v>14.2</v>
       </c>
       <c r="D199" t="n">
-        <v>13569.0479</v>
+        <v>19088.2467</v>
       </c>
       <c r="E199" t="n">
-        <v>6.3</v>
+        <v>-0.8</v>
       </c>
       <c r="F199" t="n">
-        <v>76442.265</v>
+        <v>110239.5075</v>
       </c>
       <c r="G199" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
+      </c>
+      <c r="H199" t="n">
+        <v>12014.622</v>
+      </c>
+      <c r="I199" t="n">
+        <v>2462.806</v>
+      </c>
+      <c r="J199" t="n">
+        <v>14477.428</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>86364.0107</v>
+        <v>9155.6085</v>
       </c>
       <c r="C200" t="n">
-        <v>22.4</v>
+        <v>24.3</v>
       </c>
       <c r="D200" t="n">
-        <v>11990.8453</v>
+        <v>1397.1278</v>
       </c>
       <c r="E200" t="n">
-        <v>-20</v>
+        <v>-20.5</v>
       </c>
       <c r="F200" t="n">
-        <v>98354.856</v>
+        <v>10552.7363</v>
       </c>
       <c r="G200" t="n">
-        <v>15</v>
+        <v>15.7</v>
+      </c>
+      <c r="H200" t="n">
+        <v>9155.6085</v>
+      </c>
+      <c r="I200" t="n">
+        <v>1397.1278</v>
+      </c>
+      <c r="J200" t="n">
+        <v>10552.7363</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>96736.0643</v>
+        <v>18778.39</v>
       </c>
       <c r="C201" t="n">
-        <v>22.2</v>
+        <v>19.2</v>
       </c>
       <c r="D201" t="n">
-        <v>13210.8193</v>
+        <v>2830.3031</v>
       </c>
       <c r="E201" t="n">
-        <v>-20.5</v>
+        <v>-22.5</v>
       </c>
       <c r="F201" t="n">
-        <v>109946.8836</v>
+        <v>21608.6931</v>
       </c>
       <c r="G201" t="n">
-        <v>14.8</v>
+        <v>11.4</v>
+      </c>
+      <c r="H201" t="n">
+        <v>9622.781499999999</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1433.1753</v>
+      </c>
+      <c r="J201" t="n">
+        <v>11055.9568</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>111051.7043</v>
+        <v>26636.9062</v>
       </c>
       <c r="C202" t="n">
-        <v>21.8</v>
+        <v>17</v>
       </c>
       <c r="D202" t="n">
-        <v>15340.894</v>
+        <v>3976.8663</v>
       </c>
       <c r="E202" t="n">
-        <v>-19.6</v>
+        <v>-23.2</v>
       </c>
       <c r="F202" t="n">
-        <v>126392.5983</v>
+        <v>30613.7725</v>
       </c>
       <c r="G202" t="n">
-        <v>14.7</v>
+        <v>9.5</v>
+      </c>
+      <c r="H202" t="n">
+        <v>7858.516200000002</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1146.5632</v>
+      </c>
+      <c r="J202" t="n">
+        <v>9005.079399999999</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>9155.6085</v>
+        <v>36063.2882</v>
       </c>
       <c r="C203" t="n">
-        <v>24.3</v>
+        <v>20.6</v>
       </c>
       <c r="D203" t="n">
-        <v>1397.1278</v>
+        <v>5286.6073</v>
       </c>
       <c r="E203" t="n">
-        <v>-20.5</v>
+        <v>-21.7</v>
       </c>
       <c r="F203" t="n">
-        <v>10552.7363</v>
+        <v>41349.8955</v>
       </c>
       <c r="G203" t="n">
-        <v>15.7</v>
+        <v>12.8</v>
+      </c>
+      <c r="H203" t="n">
+        <v>9426.382000000001</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1309.741</v>
+      </c>
+      <c r="J203" t="n">
+        <v>10736.123</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>18778.39</v>
+        <v>49225.1369</v>
       </c>
       <c r="C204" t="n">
-        <v>19.2</v>
+        <v>22.2</v>
       </c>
       <c r="D204" t="n">
-        <v>2830.3031</v>
+        <v>7379.1554</v>
       </c>
       <c r="E204" t="n">
-        <v>-22.5</v>
+        <v>-18.2</v>
       </c>
       <c r="F204" t="n">
-        <v>21608.6931</v>
+        <v>56604.2923</v>
       </c>
       <c r="G204" t="n">
-        <v>11.4</v>
+        <v>14.8</v>
+      </c>
+      <c r="H204" t="n">
+        <v>13161.8487</v>
+      </c>
+      <c r="I204" t="n">
+        <v>2092.5481</v>
+      </c>
+      <c r="J204" t="n">
+        <v>15254.3968</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>26636.9062</v>
+        <v>57732.9052</v>
       </c>
       <c r="C205" t="n">
-        <v>17</v>
+        <v>23.5</v>
       </c>
       <c r="D205" t="n">
-        <v>3976.8663</v>
+        <v>8595.1895</v>
       </c>
       <c r="E205" t="n">
-        <v>-23.2</v>
+        <v>-16.9</v>
       </c>
       <c r="F205" t="n">
-        <v>30613.7725</v>
+        <v>66328.0947</v>
       </c>
       <c r="G205" t="n">
-        <v>9.5</v>
+        <v>16.2</v>
+      </c>
+      <c r="H205" t="n">
+        <v>8507.768300000003</v>
+      </c>
+      <c r="I205" t="n">
+        <v>1216.034100000001</v>
+      </c>
+      <c r="J205" t="n">
+        <v>9723.8024</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>36063.2882</v>
+        <v>66222.5615</v>
       </c>
       <c r="C206" t="n">
-        <v>20.6</v>
+        <v>23.9</v>
       </c>
       <c r="D206" t="n">
-        <v>5286.6073</v>
+        <v>9608.5633</v>
       </c>
       <c r="E206" t="n">
-        <v>-21.7</v>
+        <v>-17.9</v>
       </c>
       <c r="F206" t="n">
-        <v>41349.8955</v>
+        <v>75831.12480000001</v>
       </c>
       <c r="G206" t="n">
-        <v>12.8</v>
+        <v>16.4</v>
+      </c>
+      <c r="H206" t="n">
+        <v>8489.656299999995</v>
+      </c>
+      <c r="I206" t="n">
+        <v>1013.373799999999</v>
+      </c>
+      <c r="J206" t="n">
+        <v>9503.030100000004</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>49225.1369</v>
+        <v>77292.2142</v>
       </c>
       <c r="C207" t="n">
-        <v>22.2</v>
+        <v>22.9</v>
       </c>
       <c r="D207" t="n">
-        <v>7379.1554</v>
+        <v>11071.9878</v>
       </c>
       <c r="E207" t="n">
-        <v>-18.2</v>
+        <v>-18.4</v>
       </c>
       <c r="F207" t="n">
-        <v>56604.2923</v>
+        <v>88364.202</v>
       </c>
       <c r="G207" t="n">
-        <v>14.8</v>
+        <v>15.6</v>
+      </c>
+      <c r="H207" t="n">
+        <v>11069.65270000001</v>
+      </c>
+      <c r="I207" t="n">
+        <v>1463.424500000001</v>
+      </c>
+      <c r="J207" t="n">
+        <v>12533.0772</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>57732.9052</v>
+        <v>86364.0107</v>
       </c>
       <c r="C208" t="n">
-        <v>23.5</v>
+        <v>22.4</v>
       </c>
       <c r="D208" t="n">
-        <v>8595.1895</v>
+        <v>11990.8453</v>
       </c>
       <c r="E208" t="n">
-        <v>-16.9</v>
+        <v>-20</v>
       </c>
       <c r="F208" t="n">
-        <v>66328.0947</v>
+        <v>98354.856</v>
       </c>
       <c r="G208" t="n">
-        <v>16.2</v>
+        <v>15</v>
+      </c>
+      <c r="H208" t="n">
+        <v>9071.796499999997</v>
+      </c>
+      <c r="I208" t="n">
+        <v>918.8575000000001</v>
+      </c>
+      <c r="J208" t="n">
+        <v>9990.653999999995</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>66222.5615</v>
+        <v>96736.0643</v>
       </c>
       <c r="C209" t="n">
-        <v>23.9</v>
+        <v>22.2</v>
       </c>
       <c r="D209" t="n">
-        <v>9608.5633</v>
+        <v>13210.8193</v>
       </c>
       <c r="E209" t="n">
-        <v>-17.9</v>
+        <v>-20.5</v>
       </c>
       <c r="F209" t="n">
-        <v>75831.12480000001</v>
+        <v>109946.8836</v>
       </c>
       <c r="G209" t="n">
-        <v>16.4</v>
+        <v>14.8</v>
+      </c>
+      <c r="H209" t="n">
+        <v>10372.0536</v>
+      </c>
+      <c r="I209" t="n">
+        <v>1219.973999999998</v>
+      </c>
+      <c r="J209" t="n">
+        <v>11592.0276</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>77292.2142</v>
+        <v>111051.7043</v>
       </c>
       <c r="C210" t="n">
-        <v>22.9</v>
+        <v>21.8</v>
       </c>
       <c r="D210" t="n">
-        <v>11071.9878</v>
+        <v>15340.894</v>
       </c>
       <c r="E210" t="n">
-        <v>-18.4</v>
+        <v>-19.6</v>
       </c>
       <c r="F210" t="n">
-        <v>88364.202</v>
+        <v>126392.5983</v>
       </c>
       <c r="G210" t="n">
-        <v>15.6</v>
+        <v>14.7</v>
+      </c>
+      <c r="H210" t="n">
+        <v>14315.64</v>
+      </c>
+      <c r="I210" t="n">
+        <v>2130.074700000001</v>
+      </c>
+      <c r="J210" t="n">
+        <v>16445.7147</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>98105.73669999999</v>
+        <v>9775.7117</v>
       </c>
       <c r="C211" t="n">
-        <v>13.6</v>
+        <v>6.8</v>
       </c>
       <c r="D211" t="n">
-        <v>10842.0295</v>
+        <v>1252.0798</v>
       </c>
       <c r="E211" t="n">
-        <v>-9.6</v>
+        <v>-10.4</v>
       </c>
       <c r="F211" t="n">
-        <v>108947.7662</v>
+        <v>11027.7915</v>
       </c>
       <c r="G211" t="n">
-        <v>10.8</v>
+        <v>4.5</v>
+      </c>
+      <c r="H211" t="n">
+        <v>9775.7117</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1252.0798</v>
+      </c>
+      <c r="J211" t="n">
+        <v>11027.7915</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>109545.4017</v>
+        <v>20724.5729</v>
       </c>
       <c r="C212" t="n">
-        <v>13.2</v>
+        <v>10.4</v>
       </c>
       <c r="D212" t="n">
-        <v>12160.454</v>
+        <v>2514.7981</v>
       </c>
       <c r="E212" t="n">
-        <v>-8</v>
+        <v>-11.1</v>
       </c>
       <c r="F212" t="n">
-        <v>121705.8557</v>
+        <v>23239.371</v>
       </c>
       <c r="G212" t="n">
-        <v>10.7</v>
+        <v>7.5</v>
+      </c>
+      <c r="H212" t="n">
+        <v>10948.8612</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1262.7183</v>
+      </c>
+      <c r="J212" t="n">
+        <v>12211.5795</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>125295.8395</v>
+        <v>30307.7046</v>
       </c>
       <c r="C213" t="n">
-        <v>12.8</v>
+        <v>13.8</v>
       </c>
       <c r="D213" t="n">
-        <v>14144.1288</v>
+        <v>3562.072</v>
       </c>
       <c r="E213" t="n">
-        <v>-7.8</v>
+        <v>-10.4</v>
       </c>
       <c r="F213" t="n">
-        <v>139439.9683</v>
+        <v>33869.7766</v>
       </c>
       <c r="G213" t="n">
-        <v>10.3</v>
+        <v>10.6</v>
+      </c>
+      <c r="H213" t="n">
+        <v>9583.131700000002</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1047.2739</v>
+      </c>
+      <c r="J213" t="n">
+        <v>10630.4056</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>9775.7117</v>
+        <v>40305.0588</v>
       </c>
       <c r="C214" t="n">
-        <v>6.8</v>
+        <v>11.8</v>
       </c>
       <c r="D214" t="n">
-        <v>1252.0798</v>
+        <v>4715.5983</v>
       </c>
       <c r="E214" t="n">
-        <v>-10.4</v>
+        <v>-10.8</v>
       </c>
       <c r="F214" t="n">
-        <v>11027.7915</v>
+        <v>45020.6571</v>
       </c>
       <c r="G214" t="n">
-        <v>4.5</v>
+        <v>8.9</v>
+      </c>
+      <c r="H214" t="n">
+        <v>9997.354199999998</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1153.5263</v>
+      </c>
+      <c r="J214" t="n">
+        <v>11150.8805</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>20724.5729</v>
+        <v>54835.8645</v>
       </c>
       <c r="C215" t="n">
-        <v>10.4</v>
+        <v>11.4</v>
       </c>
       <c r="D215" t="n">
-        <v>2514.7981</v>
+        <v>6509.0664</v>
       </c>
       <c r="E215" t="n">
-        <v>-11.1</v>
+        <v>-11.8</v>
       </c>
       <c r="F215" t="n">
-        <v>23239.371</v>
+        <v>61344.9309</v>
       </c>
       <c r="G215" t="n">
-        <v>7.5</v>
+        <v>8.4</v>
+      </c>
+      <c r="H215" t="n">
+        <v>14530.8057</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1793.4681</v>
+      </c>
+      <c r="J215" t="n">
+        <v>16324.2738</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>30307.7046</v>
+        <v>64815.6154</v>
       </c>
       <c r="C216" t="n">
-        <v>13.8</v>
+        <v>12.3</v>
       </c>
       <c r="D216" t="n">
-        <v>3562.072</v>
+        <v>7615.0159</v>
       </c>
       <c r="E216" t="n">
-        <v>-10.4</v>
+        <v>-11.4</v>
       </c>
       <c r="F216" t="n">
-        <v>33869.7766</v>
+        <v>72430.63129999999</v>
       </c>
       <c r="G216" t="n">
-        <v>10.6</v>
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H216" t="n">
+        <v>9979.750899999999</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1105.949500000001</v>
+      </c>
+      <c r="J216" t="n">
+        <v>11085.70039999999</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>40305.0588</v>
+        <v>74777.568</v>
       </c>
       <c r="C217" t="n">
-        <v>11.8</v>
+        <v>12.9</v>
       </c>
       <c r="D217" t="n">
-        <v>4715.5983</v>
+        <v>8539.526900000001</v>
       </c>
       <c r="E217" t="n">
-        <v>-10.8</v>
+        <v>-11.1</v>
       </c>
       <c r="F217" t="n">
-        <v>45020.6571</v>
+        <v>83317.0949</v>
       </c>
       <c r="G217" t="n">
-        <v>8.9</v>
+        <v>9.9</v>
+      </c>
+      <c r="H217" t="n">
+        <v>9961.952599999997</v>
+      </c>
+      <c r="I217" t="n">
+        <v>924.5110000000004</v>
+      </c>
+      <c r="J217" t="n">
+        <v>10886.4636</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>54835.8645</v>
+        <v>87731.4363</v>
       </c>
       <c r="C218" t="n">
-        <v>11.4</v>
+        <v>13.5</v>
       </c>
       <c r="D218" t="n">
-        <v>6509.0664</v>
+        <v>9765.117</v>
       </c>
       <c r="E218" t="n">
         <v>-11.8</v>
       </c>
       <c r="F218" t="n">
-        <v>61344.9309</v>
+        <v>97496.5533</v>
       </c>
       <c r="G218" t="n">
-        <v>8.4</v>
+        <v>10.3</v>
+      </c>
+      <c r="H218" t="n">
+        <v>12953.8683</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1225.590099999999</v>
+      </c>
+      <c r="J218" t="n">
+        <v>14179.4584</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>64815.6154</v>
+        <v>98105.73669999999</v>
       </c>
       <c r="C219" t="n">
-        <v>12.3</v>
+        <v>13.6</v>
       </c>
       <c r="D219" t="n">
-        <v>7615.0159</v>
+        <v>10842.0295</v>
       </c>
       <c r="E219" t="n">
-        <v>-11.4</v>
+        <v>-9.6</v>
       </c>
       <c r="F219" t="n">
-        <v>72430.63129999999</v>
+        <v>108947.7662</v>
       </c>
       <c r="G219" t="n">
-        <v>9.199999999999999</v>
+        <v>10.8</v>
+      </c>
+      <c r="H219" t="n">
+        <v>10374.30039999999</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1076.9125</v>
+      </c>
+      <c r="J219" t="n">
+        <v>11451.2129</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>74777.568</v>
+        <v>109545.4017</v>
       </c>
       <c r="C220" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="D220" t="n">
-        <v>8539.526900000001</v>
+        <v>12160.454</v>
       </c>
       <c r="E220" t="n">
-        <v>-11.1</v>
+        <v>-8</v>
       </c>
       <c r="F220" t="n">
-        <v>83317.0949</v>
+        <v>121705.8557</v>
       </c>
       <c r="G220" t="n">
-        <v>9.9</v>
+        <v>10.7</v>
+      </c>
+      <c r="H220" t="n">
+        <v>11439.66500000001</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1318.424499999999</v>
+      </c>
+      <c r="J220" t="n">
+        <v>12758.0895</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>87731.4363</v>
+        <v>125295.8395</v>
       </c>
       <c r="C221" t="n">
-        <v>13.5</v>
+        <v>12.8</v>
       </c>
       <c r="D221" t="n">
-        <v>9765.117</v>
+        <v>14144.1288</v>
       </c>
       <c r="E221" t="n">
-        <v>-11.8</v>
+        <v>-7.8</v>
       </c>
       <c r="F221" t="n">
-        <v>97496.5533</v>
+        <v>139439.9683</v>
       </c>
       <c r="G221" t="n">
         <v>10.3</v>
       </c>
+      <c r="H221" t="n">
+        <v>15750.4378</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1983.674800000001</v>
+      </c>
+      <c r="J221" t="n">
+        <v>17734.11260000001</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>106786.4322</v>
+        <v>6372.2419</v>
       </c>
       <c r="C222" t="n">
-        <v>8.800000000000001</v>
+        <v>-34.8</v>
       </c>
       <c r="D222" t="n">
-        <v>11136.6262</v>
+        <v>825.3457</v>
       </c>
       <c r="E222" t="n">
-        <v>2.7</v>
+        <v>-34.1</v>
       </c>
       <c r="F222" t="n">
-        <v>117923.0584</v>
+        <v>7197.5876</v>
       </c>
       <c r="G222" t="n">
-        <v>8.199999999999999</v>
+        <v>-34.7</v>
+      </c>
+      <c r="H222" t="n">
+        <v>6372.2419</v>
+      </c>
+      <c r="I222" t="n">
+        <v>825.3457</v>
+      </c>
+      <c r="J222" t="n">
+        <v>7197.5876</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>120621.6665</v>
+        <v>16029.0003</v>
       </c>
       <c r="C223" t="n">
-        <v>10.1</v>
+        <v>-22.7</v>
       </c>
       <c r="D223" t="n">
-        <v>12625.1372</v>
+        <v>1905.3569</v>
       </c>
       <c r="E223" t="n">
-        <v>3.8</v>
+        <v>-24.2</v>
       </c>
       <c r="F223" t="n">
-        <v>133246.8037</v>
+        <v>17934.3572</v>
       </c>
       <c r="G223" t="n">
-        <v>9.5</v>
+        <v>-22.8</v>
+      </c>
+      <c r="H223" t="n">
+        <v>9656.758399999999</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1080.0112</v>
+      </c>
+      <c r="J223" t="n">
+        <v>10736.7696</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>139713.3442</v>
+        <v>25378.6905</v>
       </c>
       <c r="C224" t="n">
-        <v>11.5</v>
+        <v>-16.3</v>
       </c>
       <c r="D224" t="n">
-        <v>14853.611</v>
+        <v>2911.9435</v>
       </c>
       <c r="E224" t="n">
-        <v>5</v>
+        <v>-18.3</v>
       </c>
       <c r="F224" t="n">
-        <v>154566.9552</v>
+        <v>28290.634</v>
       </c>
       <c r="G224" t="n">
-        <v>10.8</v>
+        <v>-16.5</v>
+      </c>
+      <c r="H224" t="n">
+        <v>9349.690200000001</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1006.5866</v>
+      </c>
+      <c r="J224" t="n">
+        <v>10356.2768</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>6372.2419</v>
+        <v>37118.0483</v>
       </c>
       <c r="C225" t="n">
-        <v>-34.8</v>
+        <v>-7.9</v>
       </c>
       <c r="D225" t="n">
-        <v>825.3457</v>
+        <v>4131.74</v>
       </c>
       <c r="E225" t="n">
-        <v>-34.1</v>
+        <v>-12.4</v>
       </c>
       <c r="F225" t="n">
-        <v>7197.5876</v>
+        <v>41249.7883</v>
       </c>
       <c r="G225" t="n">
-        <v>-34.7</v>
+        <v>-8.4</v>
+      </c>
+      <c r="H225" t="n">
+        <v>11739.3578</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1219.7965</v>
+      </c>
+      <c r="J225" t="n">
+        <v>12959.1543</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>16029.0003</v>
+        <v>53846.5358</v>
       </c>
       <c r="C226" t="n">
-        <v>-22.7</v>
+        <v>-1.8</v>
       </c>
       <c r="D226" t="n">
-        <v>1905.3569</v>
+        <v>5786.9015</v>
       </c>
       <c r="E226" t="n">
-        <v>-24.2</v>
+        <v>-11.1</v>
       </c>
       <c r="F226" t="n">
-        <v>17934.3572</v>
+        <v>59633.4373</v>
       </c>
       <c r="G226" t="n">
-        <v>-22.8</v>
+        <v>-2.8</v>
+      </c>
+      <c r="H226" t="n">
+        <v>16728.4875</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1655.1615</v>
+      </c>
+      <c r="J226" t="n">
+        <v>18383.649</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>25378.6905</v>
+        <v>65682.24739999999</v>
       </c>
       <c r="C227" t="n">
-        <v>-16.3</v>
+        <v>1.3</v>
       </c>
       <c r="D227" t="n">
-        <v>2911.9435</v>
+        <v>7004.2085</v>
       </c>
       <c r="E227" t="n">
-        <v>-18.3</v>
+        <v>-8</v>
       </c>
       <c r="F227" t="n">
-        <v>28290.634</v>
+        <v>72686.4559</v>
       </c>
       <c r="G227" t="n">
-        <v>-16.5</v>
+        <v>0.4</v>
+      </c>
+      <c r="H227" t="n">
+        <v>11835.7116</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1217.307</v>
+      </c>
+      <c r="J227" t="n">
+        <v>13053.0186</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>37118.0483</v>
+        <v>78515.2818</v>
       </c>
       <c r="C228" t="n">
-        <v>-7.9</v>
+        <v>5</v>
       </c>
       <c r="D228" t="n">
-        <v>4131.74</v>
+        <v>8254.091700000001</v>
       </c>
       <c r="E228" t="n">
-        <v>-12.4</v>
+        <v>-3.3</v>
       </c>
       <c r="F228" t="n">
-        <v>41249.7883</v>
+        <v>86769.3735</v>
       </c>
       <c r="G228" t="n">
-        <v>-8.4</v>
+        <v>4.1</v>
+      </c>
+      <c r="H228" t="n">
+        <v>12833.0344</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1249.883200000001</v>
+      </c>
+      <c r="J228" t="n">
+        <v>14082.9176</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>53846.5358</v>
+        <v>93725.4636</v>
       </c>
       <c r="C229" t="n">
-        <v>-1.8</v>
+        <v>6.8</v>
       </c>
       <c r="D229" t="n">
-        <v>5786.9015</v>
+        <v>9771.9373</v>
       </c>
       <c r="E229" t="n">
-        <v>-11.1</v>
+        <v>0.1</v>
       </c>
       <c r="F229" t="n">
-        <v>59633.4373</v>
+        <v>103497.4009</v>
       </c>
       <c r="G229" t="n">
-        <v>-2.8</v>
+        <v>6.2</v>
+      </c>
+      <c r="H229" t="n">
+        <v>15210.18180000001</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1517.845599999999</v>
+      </c>
+      <c r="J229" t="n">
+        <v>16728.02739999999</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>65682.24739999999</v>
+        <v>106786.4322</v>
       </c>
       <c r="C230" t="n">
-        <v>1.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D230" t="n">
-        <v>7004.2085</v>
+        <v>11136.6262</v>
       </c>
       <c r="E230" t="n">
-        <v>-8</v>
+        <v>2.7</v>
       </c>
       <c r="F230" t="n">
-        <v>72686.4559</v>
+        <v>117923.0584</v>
       </c>
       <c r="G230" t="n">
-        <v>0.4</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H230" t="n">
+        <v>13060.96859999999</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1364.688900000001</v>
+      </c>
+      <c r="J230" t="n">
+        <v>14425.6575</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>78515.2818</v>
+        <v>120621.6665</v>
       </c>
       <c r="C231" t="n">
-        <v>5</v>
+        <v>10.1</v>
       </c>
       <c r="D231" t="n">
-        <v>8254.091700000001</v>
+        <v>12625.1372</v>
       </c>
       <c r="E231" t="n">
-        <v>-3.3</v>
+        <v>3.8</v>
       </c>
       <c r="F231" t="n">
-        <v>86769.3735</v>
+        <v>133246.8037</v>
       </c>
       <c r="G231" t="n">
-        <v>4.1</v>
+        <v>9.5</v>
+      </c>
+      <c r="H231" t="n">
+        <v>13835.23430000001</v>
+      </c>
+      <c r="I231" t="n">
+        <v>1488.510999999999</v>
+      </c>
+      <c r="J231" t="n">
+        <v>15323.7453</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>93725.4636</v>
+        <v>139713.3442</v>
       </c>
       <c r="C232" t="n">
-        <v>6.8</v>
+        <v>11.5</v>
       </c>
       <c r="D232" t="n">
-        <v>9771.9373</v>
+        <v>14853.611</v>
       </c>
       <c r="E232" t="n">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="F232" t="n">
-        <v>103497.4009</v>
+        <v>154566.9552</v>
       </c>
       <c r="G232" t="n">
-        <v>6.2</v>
+        <v>10.8</v>
+      </c>
+      <c r="H232" t="n">
+        <v>19091.67769999999</v>
+      </c>
+      <c r="I232" t="n">
+        <v>2228.473800000002</v>
+      </c>
+      <c r="J232" t="n">
+        <v>21320.15150000001</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>121111.5692</v>
+        <v>15770.4284</v>
       </c>
       <c r="C233" t="n">
-        <v>13.4</v>
+        <v>147.5</v>
       </c>
       <c r="D233" t="n">
-        <v>11790.5765</v>
+        <v>1755.8835</v>
       </c>
       <c r="E233" t="n">
-        <v>5.9</v>
+        <v>112.7</v>
       </c>
       <c r="F233" t="n">
-        <v>132902.1457</v>
+        <v>17526.3119</v>
       </c>
       <c r="G233" t="n">
-        <v>12.7</v>
+        <v>143.5</v>
+      </c>
+      <c r="H233" t="n">
+        <v>15770.4284</v>
+      </c>
+      <c r="I233" t="n">
+        <v>1755.8835</v>
+      </c>
+      <c r="J233" t="n">
+        <v>17526.3119</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>132487.0827</v>
+        <v>31823.7764</v>
       </c>
       <c r="C234" t="n">
-        <v>9.800000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="D234" t="n">
-        <v>13110.2551</v>
+        <v>3231.6025</v>
       </c>
       <c r="E234" t="n">
-        <v>3.8</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="F234" t="n">
-        <v>145597.3378</v>
+        <v>35055.3789</v>
       </c>
       <c r="G234" t="n">
-        <v>9.300000000000001</v>
+        <v>95.5</v>
+      </c>
+      <c r="H234" t="n">
+        <v>16053.348</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1475.719</v>
+      </c>
+      <c r="J234" t="n">
+        <v>17529.067</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>147629.7412</v>
+        <v>44560.3907</v>
       </c>
       <c r="C235" t="n">
-        <v>5.7</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="D235" t="n">
-        <v>15100.1599</v>
+        <v>4449.2925</v>
       </c>
       <c r="E235" t="n">
-        <v>1.7</v>
+        <v>52.8</v>
       </c>
       <c r="F235" t="n">
-        <v>162729.9011</v>
+        <v>49009.6832</v>
       </c>
       <c r="G235" t="n">
-        <v>5.3</v>
+        <v>73.2</v>
+      </c>
+      <c r="H235" t="n">
+        <v>12736.6143</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1217.69</v>
+      </c>
+      <c r="J235" t="n">
+        <v>13954.3043</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>15770.4284</v>
+        <v>58892.2981</v>
       </c>
       <c r="C236" t="n">
-        <v>147.5</v>
+        <v>58.7</v>
       </c>
       <c r="D236" t="n">
-        <v>1755.8835</v>
+        <v>5678.053</v>
       </c>
       <c r="E236" t="n">
-        <v>112.7</v>
+        <v>37.4</v>
       </c>
       <c r="F236" t="n">
-        <v>17526.3119</v>
+        <v>64570.3511</v>
       </c>
       <c r="G236" t="n">
-        <v>143.5</v>
+        <v>56.5</v>
+      </c>
+      <c r="H236" t="n">
+        <v>14331.9074</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1228.7605</v>
+      </c>
+      <c r="J236" t="n">
+        <v>15560.6679</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>31823.7764</v>
+        <v>77213.10400000001</v>
       </c>
       <c r="C237" t="n">
-        <v>98.5</v>
+        <v>43.4</v>
       </c>
       <c r="D237" t="n">
-        <v>3231.6025</v>
+        <v>7419.6201</v>
       </c>
       <c r="E237" t="n">
-        <v>69.59999999999999</v>
+        <v>28.2</v>
       </c>
       <c r="F237" t="n">
-        <v>35055.3789</v>
+        <v>84632.72410000001</v>
       </c>
       <c r="G237" t="n">
-        <v>95.5</v>
+        <v>41.9</v>
+      </c>
+      <c r="H237" t="n">
+        <v>18320.80590000001</v>
+      </c>
+      <c r="I237" t="n">
+        <v>1741.5671</v>
+      </c>
+      <c r="J237" t="n">
+        <v>20062.37300000001</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>44560.3907</v>
+        <v>88239.2359</v>
       </c>
       <c r="C238" t="n">
-        <v>75.59999999999999</v>
+        <v>34.3</v>
       </c>
       <c r="D238" t="n">
-        <v>4449.2925</v>
+        <v>8507.3786</v>
       </c>
       <c r="E238" t="n">
-        <v>52.8</v>
+        <v>21.5</v>
       </c>
       <c r="F238" t="n">
-        <v>49009.6832</v>
+        <v>96746.6145</v>
       </c>
       <c r="G238" t="n">
-        <v>73.2</v>
+        <v>33.1</v>
+      </c>
+      <c r="H238" t="n">
+        <v>11026.13189999999</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1087.7585</v>
+      </c>
+      <c r="J238" t="n">
+        <v>12113.89039999999</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>58892.2981</v>
+        <v>98588.5904</v>
       </c>
       <c r="C239" t="n">
-        <v>58.7</v>
+        <v>25.6</v>
       </c>
       <c r="D239" t="n">
-        <v>5678.053</v>
+        <v>9472.9548</v>
       </c>
       <c r="E239" t="n">
-        <v>37.4</v>
+        <v>14.8</v>
       </c>
       <c r="F239" t="n">
-        <v>64570.3511</v>
+        <v>108061.5452</v>
       </c>
       <c r="G239" t="n">
-        <v>56.5</v>
+        <v>24.5</v>
+      </c>
+      <c r="H239" t="n">
+        <v>10349.3545</v>
+      </c>
+      <c r="I239" t="n">
+        <v>965.5761999999995</v>
+      </c>
+      <c r="J239" t="n">
+        <v>11314.9307</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>77213.10400000001</v>
+        <v>111221.1547</v>
       </c>
       <c r="C240" t="n">
-        <v>43.4</v>
+        <v>18.7</v>
       </c>
       <c r="D240" t="n">
-        <v>7419.6201</v>
+        <v>10736.1035</v>
       </c>
       <c r="E240" t="n">
-        <v>28.2</v>
+        <v>9.9</v>
       </c>
       <c r="F240" t="n">
-        <v>84632.72410000001</v>
+        <v>121957.2582</v>
       </c>
       <c r="G240" t="n">
-        <v>41.9</v>
+        <v>17.8</v>
+      </c>
+      <c r="H240" t="n">
+        <v>12632.5643</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1263.1487</v>
+      </c>
+      <c r="J240" t="n">
+        <v>13895.713</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>88239.2359</v>
+        <v>121111.5692</v>
       </c>
       <c r="C241" t="n">
-        <v>34.3</v>
+        <v>13.4</v>
       </c>
       <c r="D241" t="n">
-        <v>8507.3786</v>
+        <v>11790.5765</v>
       </c>
       <c r="E241" t="n">
-        <v>21.5</v>
+        <v>5.9</v>
       </c>
       <c r="F241" t="n">
-        <v>96746.6145</v>
+        <v>132902.1457</v>
       </c>
       <c r="G241" t="n">
-        <v>33.1</v>
+        <v>12.7</v>
+      </c>
+      <c r="H241" t="n">
+        <v>9890.414499999999</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1054.473</v>
+      </c>
+      <c r="J241" t="n">
+        <v>10944.8875</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>98588.5904</v>
+        <v>132487.0827</v>
       </c>
       <c r="C242" t="n">
-        <v>25.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D242" t="n">
-        <v>9472.9548</v>
+        <v>13110.2551</v>
       </c>
       <c r="E242" t="n">
-        <v>14.8</v>
+        <v>3.8</v>
       </c>
       <c r="F242" t="n">
-        <v>108061.5452</v>
+        <v>145597.3378</v>
       </c>
       <c r="G242" t="n">
-        <v>24.5</v>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H242" t="n">
+        <v>11375.5135</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1319.678600000001</v>
+      </c>
+      <c r="J242" t="n">
+        <v>12695.19210000001</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>111221.1547</v>
+        <v>147629.7412</v>
       </c>
       <c r="C243" t="n">
-        <v>18.7</v>
+        <v>5.7</v>
       </c>
       <c r="D243" t="n">
-        <v>10736.1035</v>
+        <v>15100.1599</v>
       </c>
       <c r="E243" t="n">
-        <v>9.9</v>
+        <v>1.7</v>
       </c>
       <c r="F243" t="n">
-        <v>121957.2582</v>
+        <v>162729.9011</v>
       </c>
       <c r="G243" t="n">
-        <v>17.8</v>
+        <v>5.3</v>
+      </c>
+      <c r="H243" t="n">
+        <v>15142.65849999999</v>
+      </c>
+      <c r="I243" t="n">
+        <v>1989.9048</v>
+      </c>
+      <c r="J243" t="n">
+        <v>17132.56329999998</v>
       </c>
     </row>
   </sheetData>
